--- a/newinput.xlsx
+++ b/newinput.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27290" windowHeight="6710"/>
+    <workbookView windowWidth="25840" windowHeight="13960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="85">
   <si>
     <t>借款人姓名</t>
   </si>
@@ -216,10 +203,10 @@
     <t>按时还款期数</t>
   </si>
   <si>
-    <t>本金</t>
+    <t>利息</t>
   </si>
   <si>
-    <t>利息</t>
+    <t>本金</t>
   </si>
   <si>
     <t>逾期利息</t>
@@ -289,14 +276,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -321,17 +308,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,9 +360,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,29 +384,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -399,22 +391,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -438,28 +438,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,13 +479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,25 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +563,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,25 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,19 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,67 +635,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,6 +688,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -716,20 +721,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,17 +751,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,173 +785,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,19 +971,11 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1008,43 +987,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1054,6 +1005,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
@@ -1067,54 +1054,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1309,7 +1296,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1318,7 +1305,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1337,13 +1324,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,105 +1579,105 @@
   <dimension ref="A1:DR72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02884615384615" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="20.5545454545455" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.2181818181818" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.02727272727273" style="5"/>
-    <col min="4" max="4" width="16.6272727272727" style="6" customWidth="1"/>
-    <col min="5" max="5" width="29.1272727272727" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.25454545454545" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.02727272727273" style="5"/>
-    <col min="8" max="8" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="9" max="9" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="10" max="11" width="9.02727272727273" style="5"/>
-    <col min="12" max="12" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="13" max="13" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="14" max="15" width="9.02727272727273" style="5"/>
-    <col min="16" max="16" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="17" max="17" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="18" max="19" width="9.02727272727273" style="5"/>
-    <col min="20" max="20" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="21" max="21" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="22" max="23" width="9.02727272727273" style="5"/>
-    <col min="24" max="24" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="25" max="25" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="26" max="27" width="9.02727272727273" style="5"/>
-    <col min="28" max="28" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="29" max="29" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="30" max="31" width="9.02727272727273" style="5"/>
-    <col min="32" max="32" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="33" max="33" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="34" max="35" width="9.02727272727273" style="5"/>
-    <col min="36" max="36" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="37" max="37" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="38" max="39" width="9.02727272727273" style="5"/>
-    <col min="40" max="40" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="41" max="41" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="42" max="43" width="9.02727272727273" style="5"/>
-    <col min="44" max="44" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="45" max="45" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="46" max="47" width="9.02727272727273" style="5"/>
-    <col min="48" max="48" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="49" max="49" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="50" max="51" width="9.02727272727273" style="5"/>
-    <col min="52" max="52" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="53" max="53" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="54" max="55" width="9.02727272727273" style="5"/>
-    <col min="56" max="56" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="57" max="57" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="58" max="59" width="9.02727272727273" style="5"/>
-    <col min="60" max="60" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="61" max="61" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="62" max="63" width="9.02727272727273" style="5"/>
-    <col min="64" max="64" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="65" max="65" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="66" max="67" width="9.02727272727273" style="5"/>
-    <col min="68" max="68" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="69" max="69" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="70" max="71" width="9.02727272727273" style="5"/>
-    <col min="72" max="72" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="73" max="73" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="74" max="75" width="9.02727272727273" style="5"/>
-    <col min="76" max="76" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="77" max="77" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="78" max="79" width="9.02727272727273" style="5"/>
-    <col min="80" max="80" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="81" max="81" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="82" max="83" width="9.02727272727273" style="5"/>
-    <col min="84" max="84" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="85" max="85" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="86" max="87" width="9.02727272727273" style="5"/>
-    <col min="88" max="88" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="89" max="89" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="90" max="91" width="9.02727272727273" style="5"/>
-    <col min="92" max="92" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="93" max="93" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="94" max="95" width="9.02727272727273" style="5"/>
-    <col min="96" max="96" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="97" max="97" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="98" max="99" width="9.02727272727273" style="5"/>
-    <col min="100" max="100" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="101" max="101" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="102" max="103" width="9.02727272727273" style="5"/>
-    <col min="104" max="104" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="105" max="105" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="106" max="107" width="9.02727272727273" style="5"/>
-    <col min="108" max="108" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="109" max="109" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="110" max="111" width="9.02727272727273" style="5"/>
-    <col min="112" max="112" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="113" max="113" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="114" max="115" width="9.02727272727273" style="5"/>
-    <col min="116" max="116" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="117" max="117" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="118" max="119" width="9.02727272727273" style="5"/>
-    <col min="120" max="120" width="15.1727272727273" style="5" customWidth="1"/>
-    <col min="121" max="121" width="32.8727272727273" style="5" customWidth="1"/>
-    <col min="122" max="16384" width="9.02727272727273" style="5"/>
+    <col min="1" max="1" width="20.5576923076923" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.2211538461538" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.02884615384615" style="5"/>
+    <col min="4" max="4" width="16.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.02884615384615" style="5"/>
+    <col min="8" max="8" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="9" max="9" width="32.875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="9.02884615384615" style="5"/>
+    <col min="12" max="12" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32.875" style="5" customWidth="1"/>
+    <col min="14" max="15" width="9.02884615384615" style="5"/>
+    <col min="16" max="16" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="17" max="17" width="32.875" style="5" customWidth="1"/>
+    <col min="18" max="19" width="9.02884615384615" style="5"/>
+    <col min="20" max="20" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="21" max="21" width="32.875" style="5" customWidth="1"/>
+    <col min="22" max="23" width="9.02884615384615" style="5"/>
+    <col min="24" max="24" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="25" max="25" width="32.875" style="5" customWidth="1"/>
+    <col min="26" max="27" width="9.02884615384615" style="5"/>
+    <col min="28" max="28" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="29" max="29" width="32.875" style="5" customWidth="1"/>
+    <col min="30" max="31" width="9.02884615384615" style="5"/>
+    <col min="32" max="32" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="33" max="33" width="32.875" style="5" customWidth="1"/>
+    <col min="34" max="35" width="9.02884615384615" style="5"/>
+    <col min="36" max="36" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="37" max="37" width="32.875" style="5" customWidth="1"/>
+    <col min="38" max="39" width="9.02884615384615" style="5"/>
+    <col min="40" max="40" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="41" max="41" width="32.875" style="5" customWidth="1"/>
+    <col min="42" max="43" width="9.02884615384615" style="5"/>
+    <col min="44" max="44" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="45" max="45" width="32.875" style="5" customWidth="1"/>
+    <col min="46" max="47" width="9.02884615384615" style="5"/>
+    <col min="48" max="48" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="49" max="49" width="32.875" style="5" customWidth="1"/>
+    <col min="50" max="51" width="9.02884615384615" style="5"/>
+    <col min="52" max="52" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="53" max="53" width="32.875" style="5" customWidth="1"/>
+    <col min="54" max="55" width="9.02884615384615" style="5"/>
+    <col min="56" max="56" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="57" max="57" width="32.875" style="5" customWidth="1"/>
+    <col min="58" max="59" width="9.02884615384615" style="5"/>
+    <col min="60" max="60" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="61" max="61" width="32.875" style="5" customWidth="1"/>
+    <col min="62" max="63" width="9.02884615384615" style="5"/>
+    <col min="64" max="64" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="65" max="65" width="32.875" style="5" customWidth="1"/>
+    <col min="66" max="67" width="9.02884615384615" style="5"/>
+    <col min="68" max="68" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="69" max="69" width="32.875" style="5" customWidth="1"/>
+    <col min="70" max="71" width="9.02884615384615" style="5"/>
+    <col min="72" max="72" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="73" max="73" width="32.875" style="5" customWidth="1"/>
+    <col min="74" max="75" width="9.02884615384615" style="5"/>
+    <col min="76" max="76" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="77" max="77" width="32.875" style="5" customWidth="1"/>
+    <col min="78" max="79" width="9.02884615384615" style="5"/>
+    <col min="80" max="80" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="81" max="81" width="32.875" style="5" customWidth="1"/>
+    <col min="82" max="83" width="9.02884615384615" style="5"/>
+    <col min="84" max="84" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="85" max="85" width="32.875" style="5" customWidth="1"/>
+    <col min="86" max="87" width="9.02884615384615" style="5"/>
+    <col min="88" max="88" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="89" max="89" width="32.875" style="5" customWidth="1"/>
+    <col min="90" max="91" width="9.02884615384615" style="5"/>
+    <col min="92" max="92" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="93" max="93" width="32.875" style="5" customWidth="1"/>
+    <col min="94" max="95" width="9.02884615384615" style="5"/>
+    <col min="96" max="96" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="97" max="97" width="32.875" style="5" customWidth="1"/>
+    <col min="98" max="99" width="9.02884615384615" style="5"/>
+    <col min="100" max="100" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="101" max="101" width="32.875" style="5" customWidth="1"/>
+    <col min="102" max="103" width="9.02884615384615" style="5"/>
+    <col min="104" max="104" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="105" max="105" width="32.875" style="5" customWidth="1"/>
+    <col min="106" max="107" width="9.02884615384615" style="5"/>
+    <col min="108" max="108" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="109" max="109" width="32.875" style="5" customWidth="1"/>
+    <col min="110" max="111" width="9.02884615384615" style="5"/>
+    <col min="112" max="112" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="113" max="113" width="32.875" style="5" customWidth="1"/>
+    <col min="114" max="115" width="9.02884615384615" style="5"/>
+    <col min="116" max="116" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="117" max="117" width="32.875" style="5" customWidth="1"/>
+    <col min="118" max="119" width="9.02884615384615" style="5"/>
+    <col min="120" max="120" width="15.1730769230769" style="5" customWidth="1"/>
+    <col min="121" max="121" width="32.875" style="5" customWidth="1"/>
+    <col min="122" max="16384" width="9.02884615384615" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="55" customHeight="1" spans="1:5">
@@ -1708,3783 +1688,3770 @@
         <v>1</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" s="5" customFormat="1" spans="4:5">
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:122">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="P3" s="11" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="P3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="T3" s="11" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="T3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AB3" s="11" t="s">
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AB3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AF3" s="11" t="s">
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AF3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AJ3" s="11" t="s">
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AJ3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AN3" s="11" t="s">
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AN3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AR3" s="11" t="s">
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AR3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AV3" s="11" t="s">
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AV3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AZ3" s="11" t="s">
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AZ3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BD3" s="11" t="s">
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BD3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BH3" s="11" t="s">
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BH3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BL3" s="11" t="s">
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BL3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BP3" s="11" t="s">
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BP3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BT3" s="11" t="s">
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BT3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="11"/>
-      <c r="BX3" s="11" t="s">
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BX3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="BY3" s="11"/>
-      <c r="BZ3" s="11"/>
-      <c r="CB3" s="11" t="s">
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CB3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="CC3" s="11"/>
-      <c r="CD3" s="11"/>
-      <c r="CF3" s="11" t="s">
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CF3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="11"/>
-      <c r="CJ3" s="11" t="s">
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CJ3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="CK3" s="11"/>
-      <c r="CL3" s="11"/>
-      <c r="CN3" s="11" t="s">
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CN3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="CO3" s="11"/>
-      <c r="CP3" s="11"/>
-      <c r="CR3" s="11" t="s">
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CR3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="CS3" s="11"/>
-      <c r="CT3" s="11"/>
-      <c r="CV3" s="11" t="s">
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="10"/>
+      <c r="CV3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="CW3" s="11"/>
-      <c r="CX3" s="11"/>
-      <c r="CZ3" s="11" t="s">
+      <c r="CW3" s="10"/>
+      <c r="CX3" s="10"/>
+      <c r="CZ3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="11"/>
-      <c r="DB3" s="11"/>
-      <c r="DD3" s="11" t="s">
+      <c r="DA3" s="10"/>
+      <c r="DB3" s="10"/>
+      <c r="DD3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="DE3" s="11"/>
-      <c r="DF3" s="11"/>
-      <c r="DH3" s="11" t="s">
+      <c r="DE3" s="10"/>
+      <c r="DF3" s="10"/>
+      <c r="DH3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="DI3" s="11"/>
-      <c r="DJ3" s="11"/>
-      <c r="DL3" s="11" t="s">
+      <c r="DI3" s="10"/>
+      <c r="DJ3" s="10"/>
+      <c r="DL3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="DM3" s="11"/>
-      <c r="DN3" s="11"/>
-      <c r="DP3" s="11" t="s">
+      <c r="DM3" s="10"/>
+      <c r="DN3" s="10"/>
+      <c r="DP3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="DQ3" s="11"/>
-      <c r="DR3" s="11"/>
+      <c r="DQ3" s="10"/>
+      <c r="DR3" s="10"/>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:122">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>300000</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="21"/>
+      <c r="H4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>300000</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="21"/>
+      <c r="L4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <v>300000</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="P4" s="15" t="s">
+      <c r="N4" s="21"/>
+      <c r="P4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
-      <c r="T4" s="15" t="s">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="21"/>
+      <c r="T4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="16"/>
-      <c r="X4" s="15" t="s">
+      <c r="U4" s="13"/>
+      <c r="V4" s="21"/>
+      <c r="X4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="16"/>
-      <c r="AB4" s="15" t="s">
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="21"/>
+      <c r="AB4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="16"/>
-      <c r="AF4" s="15" t="s">
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="21"/>
+      <c r="AF4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="16"/>
-      <c r="AJ4" s="15" t="s">
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="21"/>
+      <c r="AJ4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="16"/>
-      <c r="AN4" s="15" t="s">
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="21"/>
+      <c r="AN4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="16"/>
-      <c r="AR4" s="15" t="s">
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="21"/>
+      <c r="AR4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="16"/>
-      <c r="AV4" s="15" t="s">
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="21"/>
+      <c r="AV4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="16"/>
-      <c r="AZ4" s="15" t="s">
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="21"/>
+      <c r="AZ4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="16"/>
-      <c r="BD4" s="15" t="s">
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="21"/>
+      <c r="BD4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="16"/>
-      <c r="BH4" s="15" t="s">
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="21"/>
+      <c r="BH4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="16"/>
-      <c r="BL4" s="15" t="s">
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="21"/>
+      <c r="BL4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="16"/>
-      <c r="BP4" s="15" t="s">
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="21"/>
+      <c r="BP4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BQ4" s="15"/>
-      <c r="BR4" s="16"/>
-      <c r="BT4" s="15" t="s">
+      <c r="BQ4" s="13"/>
+      <c r="BR4" s="21"/>
+      <c r="BT4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BU4" s="15"/>
-      <c r="BV4" s="16"/>
-      <c r="BX4" s="15" t="s">
+      <c r="BU4" s="13"/>
+      <c r="BV4" s="21"/>
+      <c r="BX4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BY4" s="15"/>
-      <c r="BZ4" s="16"/>
-      <c r="CB4" s="15" t="s">
+      <c r="BY4" s="13"/>
+      <c r="BZ4" s="21"/>
+      <c r="CB4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="CC4" s="15"/>
-      <c r="CD4" s="16"/>
-      <c r="CF4" s="15" t="s">
+      <c r="CC4" s="13"/>
+      <c r="CD4" s="21"/>
+      <c r="CF4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="CG4" s="15"/>
-      <c r="CH4" s="16"/>
-      <c r="CJ4" s="15" t="s">
+      <c r="CG4" s="13"/>
+      <c r="CH4" s="21"/>
+      <c r="CJ4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="CK4" s="15"/>
-      <c r="CL4" s="16"/>
-      <c r="CN4" s="15" t="s">
+      <c r="CK4" s="13"/>
+      <c r="CL4" s="21"/>
+      <c r="CN4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="CO4" s="15"/>
-      <c r="CP4" s="16"/>
-      <c r="CR4" s="15" t="s">
+      <c r="CO4" s="13"/>
+      <c r="CP4" s="21"/>
+      <c r="CR4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="CS4" s="15"/>
-      <c r="CT4" s="16"/>
-      <c r="CV4" s="15" t="s">
+      <c r="CS4" s="13"/>
+      <c r="CT4" s="21"/>
+      <c r="CV4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="CW4" s="15"/>
-      <c r="CX4" s="16"/>
-      <c r="CZ4" s="15" t="s">
+      <c r="CW4" s="13"/>
+      <c r="CX4" s="21"/>
+      <c r="CZ4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="DA4" s="15"/>
-      <c r="DB4" s="16"/>
-      <c r="DD4" s="15" t="s">
+      <c r="DA4" s="13"/>
+      <c r="DB4" s="21"/>
+      <c r="DD4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="DE4" s="15"/>
-      <c r="DF4" s="16"/>
-      <c r="DH4" s="15" t="s">
+      <c r="DE4" s="13"/>
+      <c r="DF4" s="21"/>
+      <c r="DH4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="DI4" s="15"/>
-      <c r="DJ4" s="16"/>
-      <c r="DL4" s="15" t="s">
+      <c r="DI4" s="13"/>
+      <c r="DJ4" s="21"/>
+      <c r="DL4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="DM4" s="15"/>
-      <c r="DN4" s="16"/>
-      <c r="DP4" s="15" t="s">
+      <c r="DM4" s="13"/>
+      <c r="DN4" s="21"/>
+      <c r="DP4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="DQ4" s="15"/>
-      <c r="DR4" s="16"/>
+      <c r="DQ4" s="13"/>
+      <c r="DR4" s="21"/>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:122">
-      <c r="A5" s="13" t="s">
+    <row r="5" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="22">
+        <v>0.12249</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="H5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="22">
         <v>0.1152</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="21"/>
+      <c r="L5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="17">
+      <c r="M5" s="22">
         <v>0.1152</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="L5" s="15" t="s">
+      <c r="N5" s="21"/>
+      <c r="P5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="17">
-        <v>0.1152</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="22"/>
+      <c r="R5" s="21"/>
+      <c r="T5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="16"/>
-      <c r="T5" s="15" t="s">
+      <c r="U5" s="22"/>
+      <c r="V5" s="21"/>
+      <c r="X5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="16"/>
-      <c r="X5" s="15" t="s">
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="21"/>
+      <c r="AB5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="16"/>
-      <c r="AB5" s="15" t="s">
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="21"/>
+      <c r="AF5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="16"/>
-      <c r="AF5" s="15" t="s">
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="21"/>
+      <c r="AJ5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="16"/>
-      <c r="AJ5" s="15" t="s">
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="21"/>
+      <c r="AN5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="16"/>
-      <c r="AN5" s="15" t="s">
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="21"/>
+      <c r="AR5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="16"/>
-      <c r="AR5" s="15" t="s">
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="21"/>
+      <c r="AV5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="16"/>
-      <c r="AV5" s="15" t="s">
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="21"/>
+      <c r="AZ5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="16"/>
-      <c r="AZ5" s="15" t="s">
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="21"/>
+      <c r="BD5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BA5" s="17"/>
-      <c r="BB5" s="16"/>
-      <c r="BD5" s="15" t="s">
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="21"/>
+      <c r="BH5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BE5" s="17"/>
-      <c r="BF5" s="16"/>
-      <c r="BH5" s="15" t="s">
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="21"/>
+      <c r="BL5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BI5" s="17"/>
-      <c r="BJ5" s="16"/>
-      <c r="BL5" s="15" t="s">
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="21"/>
+      <c r="BP5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BM5" s="17"/>
-      <c r="BN5" s="16"/>
-      <c r="BP5" s="15" t="s">
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="21"/>
+      <c r="BT5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BQ5" s="17"/>
-      <c r="BR5" s="16"/>
-      <c r="BT5" s="15" t="s">
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="21"/>
+      <c r="BX5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BU5" s="17"/>
-      <c r="BV5" s="16"/>
-      <c r="BX5" s="15" t="s">
+      <c r="BY5" s="22"/>
+      <c r="BZ5" s="21"/>
+      <c r="CB5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BY5" s="17"/>
-      <c r="BZ5" s="16"/>
-      <c r="CB5" s="15" t="s">
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="21"/>
+      <c r="CF5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="CC5" s="17"/>
-      <c r="CD5" s="16"/>
-      <c r="CF5" s="15" t="s">
+      <c r="CG5" s="22"/>
+      <c r="CH5" s="21"/>
+      <c r="CJ5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="CG5" s="17"/>
-      <c r="CH5" s="16"/>
-      <c r="CJ5" s="15" t="s">
+      <c r="CK5" s="22"/>
+      <c r="CL5" s="21"/>
+      <c r="CN5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="CK5" s="17"/>
-      <c r="CL5" s="16"/>
-      <c r="CN5" s="15" t="s">
+      <c r="CO5" s="22"/>
+      <c r="CP5" s="21"/>
+      <c r="CR5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="CO5" s="17"/>
-      <c r="CP5" s="16"/>
-      <c r="CR5" s="15" t="s">
+      <c r="CS5" s="22"/>
+      <c r="CT5" s="21"/>
+      <c r="CV5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="CS5" s="17"/>
-      <c r="CT5" s="16"/>
-      <c r="CV5" s="15" t="s">
+      <c r="CW5" s="22"/>
+      <c r="CX5" s="21"/>
+      <c r="CZ5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="CW5" s="17"/>
-      <c r="CX5" s="16"/>
-      <c r="CZ5" s="15" t="s">
+      <c r="DA5" s="22"/>
+      <c r="DB5" s="21"/>
+      <c r="DD5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="DA5" s="17"/>
-      <c r="DB5" s="16"/>
-      <c r="DD5" s="15" t="s">
+      <c r="DE5" s="22"/>
+      <c r="DF5" s="21"/>
+      <c r="DH5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="DE5" s="17"/>
-      <c r="DF5" s="16"/>
-      <c r="DH5" s="15" t="s">
+      <c r="DI5" s="22"/>
+      <c r="DJ5" s="21"/>
+      <c r="DL5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="DI5" s="17"/>
-      <c r="DJ5" s="16"/>
-      <c r="DL5" s="15" t="s">
+      <c r="DM5" s="22"/>
+      <c r="DN5" s="21"/>
+      <c r="DP5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="DM5" s="17"/>
-      <c r="DN5" s="16"/>
-      <c r="DP5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="DQ5" s="17"/>
-      <c r="DR5" s="16"/>
+      <c r="DQ5" s="22"/>
+      <c r="DR5" s="21"/>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:122">
-      <c r="A6" s="13" t="s">
+    <row r="6" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="17">
-        <v>0.1728</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="H6" s="15" t="s">
+      <c r="E6" s="22">
+        <v>0.18369</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="H6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="22">
         <v>0.1828</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="L6" s="15" t="s">
+      <c r="J6" s="21"/>
+      <c r="L6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="22">
         <v>0.1928</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="P6" s="15" t="s">
+      <c r="N6" s="21"/>
+      <c r="P6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="16"/>
-      <c r="T6" s="15" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="21"/>
+      <c r="T6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="16"/>
-      <c r="X6" s="15" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="21"/>
+      <c r="X6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="16"/>
-      <c r="AB6" s="15" t="s">
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="21"/>
+      <c r="AB6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="16"/>
-      <c r="AF6" s="15" t="s">
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="21"/>
+      <c r="AF6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="16"/>
-      <c r="AJ6" s="15" t="s">
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="21"/>
+      <c r="AJ6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="16"/>
-      <c r="AN6" s="15" t="s">
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="21"/>
+      <c r="AN6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="16"/>
-      <c r="AR6" s="15" t="s">
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="21"/>
+      <c r="AR6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="16"/>
-      <c r="AV6" s="15" t="s">
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="21"/>
+      <c r="AV6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="16"/>
-      <c r="AZ6" s="15" t="s">
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="21"/>
+      <c r="AZ6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BA6" s="17"/>
-      <c r="BB6" s="16"/>
-      <c r="BD6" s="15" t="s">
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="21"/>
+      <c r="BD6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="16"/>
-      <c r="BH6" s="15" t="s">
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="21"/>
+      <c r="BH6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BI6" s="17"/>
-      <c r="BJ6" s="16"/>
-      <c r="BL6" s="15" t="s">
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="21"/>
+      <c r="BL6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BM6" s="17"/>
-      <c r="BN6" s="16"/>
-      <c r="BP6" s="15" t="s">
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="21"/>
+      <c r="BP6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BQ6" s="17"/>
-      <c r="BR6" s="16"/>
-      <c r="BT6" s="15" t="s">
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="21"/>
+      <c r="BT6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BU6" s="17"/>
-      <c r="BV6" s="16"/>
-      <c r="BX6" s="15" t="s">
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="21"/>
+      <c r="BX6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="BY6" s="17"/>
-      <c r="BZ6" s="16"/>
-      <c r="CB6" s="15" t="s">
+      <c r="BY6" s="22"/>
+      <c r="BZ6" s="21"/>
+      <c r="CB6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="CC6" s="17"/>
-      <c r="CD6" s="16"/>
-      <c r="CF6" s="15" t="s">
+      <c r="CC6" s="22"/>
+      <c r="CD6" s="21"/>
+      <c r="CF6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="CG6" s="17"/>
-      <c r="CH6" s="16"/>
-      <c r="CJ6" s="15" t="s">
+      <c r="CG6" s="22"/>
+      <c r="CH6" s="21"/>
+      <c r="CJ6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="CK6" s="17"/>
-      <c r="CL6" s="16"/>
-      <c r="CN6" s="15" t="s">
+      <c r="CK6" s="22"/>
+      <c r="CL6" s="21"/>
+      <c r="CN6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="CO6" s="17"/>
-      <c r="CP6" s="16"/>
-      <c r="CR6" s="15" t="s">
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="21"/>
+      <c r="CR6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="CS6" s="17"/>
-      <c r="CT6" s="16"/>
-      <c r="CV6" s="15" t="s">
+      <c r="CS6" s="22"/>
+      <c r="CT6" s="21"/>
+      <c r="CV6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="CW6" s="17"/>
-      <c r="CX6" s="16"/>
-      <c r="CZ6" s="15" t="s">
+      <c r="CW6" s="22"/>
+      <c r="CX6" s="21"/>
+      <c r="CZ6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="DA6" s="17"/>
-      <c r="DB6" s="16"/>
-      <c r="DD6" s="15" t="s">
+      <c r="DA6" s="22"/>
+      <c r="DB6" s="21"/>
+      <c r="DD6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="DE6" s="17"/>
-      <c r="DF6" s="16"/>
-      <c r="DH6" s="15" t="s">
+      <c r="DE6" s="22"/>
+      <c r="DF6" s="21"/>
+      <c r="DH6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="DI6" s="17"/>
-      <c r="DJ6" s="16"/>
-      <c r="DL6" s="15" t="s">
+      <c r="DI6" s="22"/>
+      <c r="DJ6" s="21"/>
+      <c r="DL6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="DM6" s="17"/>
-      <c r="DN6" s="16"/>
-      <c r="DP6" s="15" t="s">
+      <c r="DM6" s="22"/>
+      <c r="DN6" s="21"/>
+      <c r="DP6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="DQ6" s="17"/>
-      <c r="DR6" s="16"/>
+      <c r="DQ6" s="22"/>
+      <c r="DR6" s="21"/>
     </row>
-    <row r="7" s="5" customFormat="1" spans="1:122">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>12345678911</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="15">
-        <v>13</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="H7" s="15" t="s">
+      <c r="E7" s="13">
+        <v>12</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="H7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="15">
-        <v>13</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="L7" s="15" t="s">
+      <c r="I7" s="13">
+        <v>12</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="L7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <v>12</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="P7" s="15" t="s">
+      <c r="N7" s="21"/>
+      <c r="P7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
-      <c r="T7" s="15" t="s">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="21"/>
+      <c r="T7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="16"/>
-      <c r="X7" s="15" t="s">
+      <c r="U7" s="13"/>
+      <c r="V7" s="21"/>
+      <c r="X7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16"/>
-      <c r="AB7" s="15" t="s">
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="21"/>
+      <c r="AB7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="16"/>
-      <c r="AF7" s="15" t="s">
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="21"/>
+      <c r="AF7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="16"/>
-      <c r="AJ7" s="15" t="s">
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="21"/>
+      <c r="AJ7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="16"/>
-      <c r="AN7" s="15" t="s">
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="21"/>
+      <c r="AN7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="16"/>
-      <c r="AR7" s="15" t="s">
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="21"/>
+      <c r="AR7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="16"/>
-      <c r="AV7" s="15" t="s">
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="21"/>
+      <c r="AV7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="16"/>
-      <c r="AZ7" s="15" t="s">
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="21"/>
+      <c r="AZ7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="16"/>
-      <c r="BD7" s="15" t="s">
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="21"/>
+      <c r="BD7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="16"/>
-      <c r="BH7" s="15" t="s">
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="21"/>
+      <c r="BH7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="16"/>
-      <c r="BL7" s="15" t="s">
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="21"/>
+      <c r="BL7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BM7" s="15"/>
-      <c r="BN7" s="16"/>
-      <c r="BP7" s="15" t="s">
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="21"/>
+      <c r="BP7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BQ7" s="15"/>
-      <c r="BR7" s="16"/>
-      <c r="BT7" s="15" t="s">
+      <c r="BQ7" s="13"/>
+      <c r="BR7" s="21"/>
+      <c r="BT7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BU7" s="15"/>
-      <c r="BV7" s="16"/>
-      <c r="BX7" s="15" t="s">
+      <c r="BU7" s="13"/>
+      <c r="BV7" s="21"/>
+      <c r="BX7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="16"/>
-      <c r="CB7" s="15" t="s">
+      <c r="BY7" s="13"/>
+      <c r="BZ7" s="21"/>
+      <c r="CB7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="CC7" s="15"/>
-      <c r="CD7" s="16"/>
-      <c r="CF7" s="15" t="s">
+      <c r="CC7" s="13"/>
+      <c r="CD7" s="21"/>
+      <c r="CF7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="CG7" s="15"/>
-      <c r="CH7" s="16"/>
-      <c r="CJ7" s="15" t="s">
+      <c r="CG7" s="13"/>
+      <c r="CH7" s="21"/>
+      <c r="CJ7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="CK7" s="15"/>
-      <c r="CL7" s="16"/>
-      <c r="CN7" s="15" t="s">
+      <c r="CK7" s="13"/>
+      <c r="CL7" s="21"/>
+      <c r="CN7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="CO7" s="15"/>
-      <c r="CP7" s="16"/>
-      <c r="CR7" s="15" t="s">
+      <c r="CO7" s="13"/>
+      <c r="CP7" s="21"/>
+      <c r="CR7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="CS7" s="15"/>
-      <c r="CT7" s="16"/>
-      <c r="CV7" s="15" t="s">
+      <c r="CS7" s="13"/>
+      <c r="CT7" s="21"/>
+      <c r="CV7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="CW7" s="15"/>
-      <c r="CX7" s="16"/>
-      <c r="CZ7" s="15" t="s">
+      <c r="CW7" s="13"/>
+      <c r="CX7" s="21"/>
+      <c r="CZ7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="DA7" s="15"/>
-      <c r="DB7" s="16"/>
-      <c r="DD7" s="15" t="s">
+      <c r="DA7" s="13"/>
+      <c r="DB7" s="21"/>
+      <c r="DD7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="DE7" s="15"/>
-      <c r="DF7" s="16"/>
-      <c r="DH7" s="15" t="s">
+      <c r="DE7" s="13"/>
+      <c r="DF7" s="21"/>
+      <c r="DH7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="DI7" s="15"/>
-      <c r="DJ7" s="16"/>
-      <c r="DL7" s="15" t="s">
+      <c r="DI7" s="13"/>
+      <c r="DJ7" s="21"/>
+      <c r="DL7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="DM7" s="15"/>
-      <c r="DN7" s="16"/>
-      <c r="DP7" s="15" t="s">
+      <c r="DM7" s="13"/>
+      <c r="DN7" s="21"/>
+      <c r="DP7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="DQ7" s="15"/>
-      <c r="DR7" s="16"/>
+      <c r="DQ7" s="13"/>
+      <c r="DR7" s="21"/>
     </row>
-    <row r="8" s="5" customFormat="1" spans="1:122">
-      <c r="A8" s="13" t="s">
+    <row r="8" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>50000</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="23">
+        <v>45250</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="H8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="23">
+        <v>45250</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="L8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="23">
         <v>45430</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="H8" s="15" t="s">
+      <c r="N8" s="21"/>
+      <c r="P8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="18">
-        <v>45430</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="L8" s="15" t="s">
+      <c r="Q8" s="23"/>
+      <c r="R8" s="21"/>
+      <c r="T8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="18">
-        <v>45430</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="P8" s="15" t="s">
+      <c r="U8" s="23"/>
+      <c r="V8" s="21"/>
+      <c r="X8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="16"/>
-      <c r="T8" s="15" t="s">
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="21"/>
+      <c r="AB8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="16"/>
-      <c r="X8" s="15" t="s">
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="21"/>
+      <c r="AF8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="16"/>
-      <c r="AB8" s="15" t="s">
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="21"/>
+      <c r="AJ8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="16"/>
-      <c r="AF8" s="15" t="s">
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="21"/>
+      <c r="AN8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="16"/>
-      <c r="AJ8" s="15" t="s">
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="21"/>
+      <c r="AR8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="16"/>
-      <c r="AN8" s="15" t="s">
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="21"/>
+      <c r="AV8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="16"/>
-      <c r="AR8" s="15" t="s">
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="21"/>
+      <c r="AZ8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="16"/>
-      <c r="AV8" s="15" t="s">
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="21"/>
+      <c r="BD8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AW8" s="18"/>
-      <c r="AX8" s="16"/>
-      <c r="AZ8" s="15" t="s">
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="21"/>
+      <c r="BH8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="16"/>
-      <c r="BD8" s="15" t="s">
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="21"/>
+      <c r="BL8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BE8" s="18"/>
-      <c r="BF8" s="16"/>
-      <c r="BH8" s="15" t="s">
+      <c r="BM8" s="23"/>
+      <c r="BN8" s="21"/>
+      <c r="BP8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BI8" s="18"/>
-      <c r="BJ8" s="16"/>
-      <c r="BL8" s="15" t="s">
+      <c r="BQ8" s="23"/>
+      <c r="BR8" s="21"/>
+      <c r="BT8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BM8" s="18"/>
-      <c r="BN8" s="16"/>
-      <c r="BP8" s="15" t="s">
+      <c r="BU8" s="23"/>
+      <c r="BV8" s="21"/>
+      <c r="BX8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BQ8" s="18"/>
-      <c r="BR8" s="16"/>
-      <c r="BT8" s="15" t="s">
+      <c r="BY8" s="23"/>
+      <c r="BZ8" s="21"/>
+      <c r="CB8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BU8" s="18"/>
-      <c r="BV8" s="16"/>
-      <c r="BX8" s="15" t="s">
+      <c r="CC8" s="23"/>
+      <c r="CD8" s="21"/>
+      <c r="CF8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BY8" s="18"/>
-      <c r="BZ8" s="16"/>
-      <c r="CB8" s="15" t="s">
+      <c r="CG8" s="23"/>
+      <c r="CH8" s="21"/>
+      <c r="CJ8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="CC8" s="18"/>
-      <c r="CD8" s="16"/>
-      <c r="CF8" s="15" t="s">
+      <c r="CK8" s="23"/>
+      <c r="CL8" s="21"/>
+      <c r="CN8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="CG8" s="18"/>
-      <c r="CH8" s="16"/>
-      <c r="CJ8" s="15" t="s">
+      <c r="CO8" s="23"/>
+      <c r="CP8" s="21"/>
+      <c r="CR8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="CK8" s="18"/>
-      <c r="CL8" s="16"/>
-      <c r="CN8" s="15" t="s">
+      <c r="CS8" s="23"/>
+      <c r="CT8" s="21"/>
+      <c r="CV8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="CO8" s="18"/>
-      <c r="CP8" s="16"/>
-      <c r="CR8" s="15" t="s">
+      <c r="CW8" s="23"/>
+      <c r="CX8" s="21"/>
+      <c r="CZ8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="CS8" s="18"/>
-      <c r="CT8" s="16"/>
-      <c r="CV8" s="15" t="s">
+      <c r="DA8" s="23"/>
+      <c r="DB8" s="21"/>
+      <c r="DD8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="CW8" s="18"/>
-      <c r="CX8" s="16"/>
-      <c r="CZ8" s="15" t="s">
+      <c r="DE8" s="23"/>
+      <c r="DF8" s="21"/>
+      <c r="DH8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="DA8" s="18"/>
-      <c r="DB8" s="16"/>
-      <c r="DD8" s="15" t="s">
+      <c r="DI8" s="23"/>
+      <c r="DJ8" s="21"/>
+      <c r="DL8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="DE8" s="18"/>
-      <c r="DF8" s="16"/>
-      <c r="DH8" s="15" t="s">
+      <c r="DM8" s="23"/>
+      <c r="DN8" s="21"/>
+      <c r="DP8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="DI8" s="18"/>
-      <c r="DJ8" s="16"/>
-      <c r="DL8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="DM8" s="18"/>
-      <c r="DN8" s="16"/>
-      <c r="DP8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="DQ8" s="18"/>
-      <c r="DR8" s="16"/>
+      <c r="DQ8" s="23"/>
+      <c r="DR8" s="21"/>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:122">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="14">
         <v>45423</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="23">
+        <v>45585</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="H9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="23">
+        <v>45585</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="L9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="23">
         <v>45795</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="H9" s="15" t="s">
+      <c r="N9" s="24"/>
+      <c r="P9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="18">
-        <v>45795</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="L9" s="15" t="s">
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24"/>
+      <c r="T9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="18">
-        <v>45795</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="P9" s="15" t="s">
+      <c r="U9" s="23"/>
+      <c r="V9" s="24"/>
+      <c r="X9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="20"/>
-      <c r="T9" s="15" t="s">
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="24"/>
+      <c r="AB9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="20"/>
-      <c r="X9" s="15" t="s">
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="24"/>
+      <c r="AF9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
-      <c r="AB9" s="15" t="s">
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="24"/>
+      <c r="AJ9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="20"/>
-      <c r="AF9" s="15" t="s">
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="24"/>
+      <c r="AN9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="20"/>
-      <c r="AJ9" s="15" t="s">
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="24"/>
+      <c r="AR9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="20"/>
-      <c r="AN9" s="15" t="s">
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="24"/>
+      <c r="AV9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="20"/>
-      <c r="AR9" s="15" t="s">
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="24"/>
+      <c r="AZ9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="20"/>
-      <c r="AV9" s="15" t="s">
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="24"/>
+      <c r="BD9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="20"/>
-      <c r="AZ9" s="15" t="s">
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="24"/>
+      <c r="BH9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="20"/>
-      <c r="BD9" s="15" t="s">
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="24"/>
+      <c r="BL9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="20"/>
-      <c r="BH9" s="15" t="s">
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="24"/>
+      <c r="BP9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="20"/>
-      <c r="BL9" s="15" t="s">
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="24"/>
+      <c r="BT9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="20"/>
-      <c r="BP9" s="15" t="s">
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="24"/>
+      <c r="BX9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="20"/>
-      <c r="BT9" s="15" t="s">
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="24"/>
+      <c r="CB9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="20"/>
-      <c r="BX9" s="15" t="s">
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="24"/>
+      <c r="CF9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="20"/>
-      <c r="CB9" s="15" t="s">
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="24"/>
+      <c r="CJ9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="20"/>
-      <c r="CF9" s="15" t="s">
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="24"/>
+      <c r="CN9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="20"/>
-      <c r="CJ9" s="15" t="s">
+      <c r="CO9" s="23"/>
+      <c r="CP9" s="24"/>
+      <c r="CR9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="20"/>
-      <c r="CN9" s="15" t="s">
+      <c r="CS9" s="23"/>
+      <c r="CT9" s="24"/>
+      <c r="CV9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="CO9" s="18"/>
-      <c r="CP9" s="20"/>
-      <c r="CR9" s="15" t="s">
+      <c r="CW9" s="23"/>
+      <c r="CX9" s="24"/>
+      <c r="CZ9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="CS9" s="18"/>
-      <c r="CT9" s="20"/>
-      <c r="CV9" s="15" t="s">
+      <c r="DA9" s="23"/>
+      <c r="DB9" s="24"/>
+      <c r="DD9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="CW9" s="18"/>
-      <c r="CX9" s="20"/>
-      <c r="CZ9" s="15" t="s">
+      <c r="DE9" s="23"/>
+      <c r="DF9" s="24"/>
+      <c r="DH9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="DA9" s="18"/>
-      <c r="DB9" s="20"/>
-      <c r="DD9" s="15" t="s">
+      <c r="DI9" s="23"/>
+      <c r="DJ9" s="24"/>
+      <c r="DL9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="DE9" s="18"/>
-      <c r="DF9" s="20"/>
-      <c r="DH9" s="15" t="s">
+      <c r="DM9" s="23"/>
+      <c r="DN9" s="24"/>
+      <c r="DP9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="DI9" s="18"/>
-      <c r="DJ9" s="20"/>
-      <c r="DL9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="DM9" s="18"/>
-      <c r="DN9" s="20"/>
-      <c r="DP9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="DQ9" s="18"/>
-      <c r="DR9" s="20"/>
+      <c r="DQ9" s="23"/>
+      <c r="DR9" s="24"/>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:122">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="5" customFormat="1" ht="34" spans="1:122">
+      <c r="A10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="H10" s="21" t="s">
+      <c r="F10" s="24"/>
+      <c r="H10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="L10" s="21" t="s">
+      <c r="J10" s="24"/>
+      <c r="L10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="P10" s="21" t="s">
+      <c r="N10" s="24"/>
+      <c r="P10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="T10" s="21" t="s">
+      <c r="R10" s="24"/>
+      <c r="T10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="V10" s="20"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="20"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="20"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="20"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="20"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="20"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="20"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="20"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="20"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="20"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="20"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="15"/>
-      <c r="BN10" s="20"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
-      <c r="BR10" s="20"/>
-      <c r="BT10" s="15"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="20"/>
-      <c r="BX10" s="15"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="20"/>
-      <c r="CB10" s="15"/>
-      <c r="CC10" s="15"/>
-      <c r="CD10" s="20"/>
-      <c r="CF10" s="15"/>
-      <c r="CG10" s="15"/>
-      <c r="CH10" s="20"/>
-      <c r="CJ10" s="15"/>
-      <c r="CK10" s="15"/>
-      <c r="CL10" s="20"/>
-      <c r="CN10" s="15"/>
-      <c r="CO10" s="15"/>
-      <c r="CP10" s="20"/>
-      <c r="CR10" s="15"/>
-      <c r="CS10" s="15"/>
-      <c r="CT10" s="20"/>
-      <c r="CV10" s="15"/>
-      <c r="CW10" s="15"/>
-      <c r="CX10" s="20"/>
-      <c r="CZ10" s="15"/>
-      <c r="DA10" s="15"/>
-      <c r="DB10" s="20"/>
-      <c r="DD10" s="15"/>
-      <c r="DE10" s="15"/>
-      <c r="DF10" s="20"/>
-      <c r="DH10" s="15"/>
-      <c r="DI10" s="15"/>
-      <c r="DJ10" s="20"/>
-      <c r="DL10" s="15"/>
-      <c r="DM10" s="15"/>
-      <c r="DN10" s="20"/>
-      <c r="DP10" s="15"/>
-      <c r="DQ10" s="15"/>
-      <c r="DR10" s="20"/>
+      <c r="V10" s="24"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="24"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="24"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="24"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="24"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="24"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="24"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="24"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="24"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="24"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="24"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="24"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="24"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="24"/>
+      <c r="BX10" s="13"/>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="24"/>
+      <c r="CB10" s="13"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="24"/>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="24"/>
+      <c r="CJ10" s="13"/>
+      <c r="CK10" s="13"/>
+      <c r="CL10" s="24"/>
+      <c r="CN10" s="13"/>
+      <c r="CO10" s="13"/>
+      <c r="CP10" s="24"/>
+      <c r="CR10" s="13"/>
+      <c r="CS10" s="13"/>
+      <c r="CT10" s="24"/>
+      <c r="CV10" s="13"/>
+      <c r="CW10" s="13"/>
+      <c r="CX10" s="24"/>
+      <c r="CZ10" s="13"/>
+      <c r="DA10" s="13"/>
+      <c r="DB10" s="24"/>
+      <c r="DD10" s="13"/>
+      <c r="DE10" s="13"/>
+      <c r="DF10" s="24"/>
+      <c r="DH10" s="13"/>
+      <c r="DI10" s="13"/>
+      <c r="DJ10" s="24"/>
+      <c r="DL10" s="13"/>
+      <c r="DM10" s="13"/>
+      <c r="DN10" s="24"/>
+      <c r="DP10" s="13"/>
+      <c r="DQ10" s="13"/>
+      <c r="DR10" s="24"/>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:122">
-      <c r="A11" s="13" t="s">
+    <row r="11" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="14">
         <v>45819</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="24"/>
+      <c r="H11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="L11" s="15" t="s">
+      <c r="J11" s="24"/>
+      <c r="L11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="P11" s="15" t="s">
+      <c r="N11" s="24"/>
+      <c r="P11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="20"/>
-      <c r="T11" s="15" t="s">
+      <c r="Q11" s="13"/>
+      <c r="R11" s="24"/>
+      <c r="T11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="20"/>
-      <c r="X11" s="15" t="s">
+      <c r="U11" s="13"/>
+      <c r="V11" s="24"/>
+      <c r="X11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="20"/>
-      <c r="AB11" s="15" t="s">
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="24"/>
+      <c r="AB11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="20"/>
-      <c r="AF11" s="15" t="s">
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="24"/>
+      <c r="AF11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="20"/>
-      <c r="AJ11" s="15" t="s">
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="24"/>
+      <c r="AJ11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="20"/>
-      <c r="AN11" s="15" t="s">
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="24"/>
+      <c r="AN11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="20"/>
-      <c r="AR11" s="15" t="s">
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="24"/>
+      <c r="AR11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="20"/>
-      <c r="AV11" s="15" t="s">
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="24"/>
+      <c r="AV11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="20"/>
-      <c r="AZ11" s="15" t="s">
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="24"/>
+      <c r="AZ11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="20"/>
-      <c r="BD11" s="15" t="s">
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="24"/>
+      <c r="BD11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="20"/>
-      <c r="BH11" s="15" t="s">
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="24"/>
+      <c r="BH11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BI11" s="15"/>
-      <c r="BJ11" s="20"/>
-      <c r="BL11" s="15" t="s">
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="24"/>
+      <c r="BL11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BM11" s="15"/>
-      <c r="BN11" s="20"/>
-      <c r="BP11" s="15" t="s">
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="24"/>
+      <c r="BP11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BQ11" s="15"/>
-      <c r="BR11" s="20"/>
-      <c r="BT11" s="15" t="s">
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="24"/>
+      <c r="BT11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BU11" s="15"/>
-      <c r="BV11" s="20"/>
-      <c r="BX11" s="15" t="s">
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="24"/>
+      <c r="BX11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BY11" s="15"/>
-      <c r="BZ11" s="20"/>
-      <c r="CB11" s="15" t="s">
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="24"/>
+      <c r="CB11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CC11" s="15"/>
-      <c r="CD11" s="20"/>
-      <c r="CF11" s="15" t="s">
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="24"/>
+      <c r="CF11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CG11" s="15"/>
-      <c r="CH11" s="20"/>
-      <c r="CJ11" s="15" t="s">
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="24"/>
+      <c r="CJ11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CK11" s="15"/>
-      <c r="CL11" s="20"/>
-      <c r="CN11" s="15" t="s">
+      <c r="CK11" s="13"/>
+      <c r="CL11" s="24"/>
+      <c r="CN11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CO11" s="15"/>
-      <c r="CP11" s="20"/>
-      <c r="CR11" s="15" t="s">
+      <c r="CO11" s="13"/>
+      <c r="CP11" s="24"/>
+      <c r="CR11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CS11" s="15"/>
-      <c r="CT11" s="20"/>
-      <c r="CV11" s="15" t="s">
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="24"/>
+      <c r="CV11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CW11" s="15"/>
-      <c r="CX11" s="20"/>
-      <c r="CZ11" s="15" t="s">
+      <c r="CW11" s="13"/>
+      <c r="CX11" s="24"/>
+      <c r="CZ11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="DA11" s="15"/>
-      <c r="DB11" s="20"/>
-      <c r="DD11" s="15" t="s">
+      <c r="DA11" s="13"/>
+      <c r="DB11" s="24"/>
+      <c r="DD11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="DE11" s="15"/>
-      <c r="DF11" s="20"/>
-      <c r="DH11" s="15" t="s">
+      <c r="DE11" s="13"/>
+      <c r="DF11" s="24"/>
+      <c r="DH11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="DI11" s="15"/>
-      <c r="DJ11" s="20"/>
-      <c r="DL11" s="15" t="s">
+      <c r="DI11" s="13"/>
+      <c r="DJ11" s="24"/>
+      <c r="DL11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="DM11" s="15"/>
-      <c r="DN11" s="20"/>
-      <c r="DP11" s="15" t="s">
+      <c r="DM11" s="13"/>
+      <c r="DN11" s="24"/>
+      <c r="DP11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="DQ11" s="15"/>
-      <c r="DR11" s="20"/>
+      <c r="DQ11" s="13"/>
+      <c r="DR11" s="24"/>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:122">
-      <c r="A12" s="13" t="s">
+    <row r="12" s="5" customFormat="1" ht="17" spans="1:122">
+      <c r="A12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>300000</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>21</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="24"/>
+      <c r="H12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>21</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="L12" s="15" t="s">
+      <c r="J12" s="24"/>
+      <c r="L12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <v>18</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="P12" s="15" t="s">
+      <c r="N12" s="24"/>
+      <c r="P12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="20"/>
-      <c r="T12" s="15" t="s">
+      <c r="Q12" s="13"/>
+      <c r="R12" s="24"/>
+      <c r="T12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="U12" s="15"/>
-      <c r="V12" s="20"/>
-      <c r="X12" s="15" t="s">
+      <c r="U12" s="13"/>
+      <c r="V12" s="24"/>
+      <c r="X12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="20"/>
-      <c r="AB12" s="15" t="s">
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="24"/>
+      <c r="AB12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="20"/>
-      <c r="AF12" s="15" t="s">
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="24"/>
+      <c r="AF12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="20"/>
-      <c r="AJ12" s="15" t="s">
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="24"/>
+      <c r="AJ12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="20"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="24"/>
       <c r="AM12" s="28"/>
-      <c r="AN12" s="15" t="s">
+      <c r="AN12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="20"/>
-      <c r="AR12" s="15" t="s">
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="24"/>
+      <c r="AR12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="20"/>
-      <c r="AV12" s="15" t="s">
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="24"/>
+      <c r="AV12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="20"/>
-      <c r="AZ12" s="15" t="s">
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="24"/>
+      <c r="AZ12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="20"/>
-      <c r="BD12" s="15" t="s">
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="24"/>
+      <c r="BD12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="20"/>
-      <c r="BH12" s="15" t="s">
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="24"/>
+      <c r="BH12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="20"/>
-      <c r="BL12" s="15" t="s">
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="24"/>
+      <c r="BL12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BM12" s="15"/>
-      <c r="BN12" s="20"/>
-      <c r="BP12" s="15" t="s">
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="24"/>
+      <c r="BP12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BQ12" s="15"/>
-      <c r="BR12" s="20"/>
-      <c r="BT12" s="15" t="s">
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="24"/>
+      <c r="BT12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="20"/>
-      <c r="BX12" s="15" t="s">
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="24"/>
+      <c r="BX12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="20"/>
-      <c r="CB12" s="15" t="s">
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="24"/>
+      <c r="CB12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CC12" s="15"/>
-      <c r="CD12" s="20"/>
-      <c r="CF12" s="15" t="s">
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="24"/>
+      <c r="CF12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="20"/>
-      <c r="CJ12" s="15" t="s">
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="24"/>
+      <c r="CJ12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CK12" s="15"/>
-      <c r="CL12" s="20"/>
-      <c r="CN12" s="15" t="s">
+      <c r="CK12" s="13"/>
+      <c r="CL12" s="24"/>
+      <c r="CN12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CO12" s="15"/>
-      <c r="CP12" s="20"/>
-      <c r="CR12" s="15" t="s">
+      <c r="CO12" s="13"/>
+      <c r="CP12" s="24"/>
+      <c r="CR12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CS12" s="15"/>
-      <c r="CT12" s="20"/>
-      <c r="CV12" s="15" t="s">
+      <c r="CS12" s="13"/>
+      <c r="CT12" s="24"/>
+      <c r="CV12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CW12" s="15"/>
-      <c r="CX12" s="20"/>
-      <c r="CZ12" s="15" t="s">
+      <c r="CW12" s="13"/>
+      <c r="CX12" s="24"/>
+      <c r="CZ12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="DA12" s="15"/>
-      <c r="DB12" s="20"/>
-      <c r="DD12" s="15" t="s">
+      <c r="DA12" s="13"/>
+      <c r="DB12" s="24"/>
+      <c r="DD12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="DE12" s="15"/>
-      <c r="DF12" s="20"/>
-      <c r="DH12" s="15" t="s">
+      <c r="DE12" s="13"/>
+      <c r="DF12" s="24"/>
+      <c r="DH12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="DI12" s="15"/>
-      <c r="DJ12" s="20"/>
-      <c r="DL12" s="15" t="s">
+      <c r="DI12" s="13"/>
+      <c r="DJ12" s="24"/>
+      <c r="DL12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="DM12" s="15"/>
-      <c r="DN12" s="20"/>
-      <c r="DP12" s="15" t="s">
+      <c r="DM12" s="13"/>
+      <c r="DN12" s="24"/>
+      <c r="DP12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="DQ12" s="15"/>
-      <c r="DR12" s="20"/>
+      <c r="DQ12" s="13"/>
+      <c r="DR12" s="24"/>
     </row>
-    <row r="13" s="5" customFormat="1" ht="28" spans="1:122">
-      <c r="A13" s="13" t="s">
+    <row r="13" s="5" customFormat="1" ht="34" spans="1:122">
+      <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="25">
+        <v>45556</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
+      <c r="I13" s="25">
+        <v>45556</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20" t="s">
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="20"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="20"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="20"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="20"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="20"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="20"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="24"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="24"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="24"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="24"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="24"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="24"/>
       <c r="AM13" s="28"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="20"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="20"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="20"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="20"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="20"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="20"/>
-      <c r="BL13" s="15"/>
-      <c r="BM13" s="15"/>
-      <c r="BN13" s="20"/>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BR13" s="20"/>
-      <c r="BT13" s="15"/>
-      <c r="BU13" s="15"/>
-      <c r="BV13" s="20"/>
-      <c r="BX13" s="15"/>
-      <c r="BY13" s="15"/>
-      <c r="BZ13" s="20"/>
-      <c r="CB13" s="15"/>
-      <c r="CC13" s="15"/>
-      <c r="CD13" s="20"/>
-      <c r="CF13" s="15"/>
-      <c r="CG13" s="15"/>
-      <c r="CH13" s="20"/>
-      <c r="CJ13" s="15"/>
-      <c r="CK13" s="15"/>
-      <c r="CL13" s="20"/>
-      <c r="CN13" s="15"/>
-      <c r="CO13" s="15"/>
-      <c r="CP13" s="20"/>
-      <c r="CR13" s="15"/>
-      <c r="CS13" s="15"/>
-      <c r="CT13" s="20"/>
-      <c r="CV13" s="15"/>
-      <c r="CW13" s="15"/>
-      <c r="CX13" s="20"/>
-      <c r="CZ13" s="15"/>
-      <c r="DA13" s="15"/>
-      <c r="DB13" s="20"/>
-      <c r="DD13" s="15"/>
-      <c r="DE13" s="15"/>
-      <c r="DF13" s="20"/>
-      <c r="DH13" s="15"/>
-      <c r="DI13" s="15"/>
-      <c r="DJ13" s="20"/>
-      <c r="DL13" s="15"/>
-      <c r="DM13" s="15"/>
-      <c r="DN13" s="20"/>
-      <c r="DP13" s="15"/>
-      <c r="DQ13" s="15"/>
-      <c r="DR13" s="20"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="24"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="24"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="24"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="24"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="24"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="24"/>
+      <c r="BL13" s="13"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="24"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="24"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="24"/>
+      <c r="BX13" s="13"/>
+      <c r="BY13" s="13"/>
+      <c r="BZ13" s="24"/>
+      <c r="CB13" s="13"/>
+      <c r="CC13" s="13"/>
+      <c r="CD13" s="24"/>
+      <c r="CF13" s="13"/>
+      <c r="CG13" s="13"/>
+      <c r="CH13" s="24"/>
+      <c r="CJ13" s="13"/>
+      <c r="CK13" s="13"/>
+      <c r="CL13" s="24"/>
+      <c r="CN13" s="13"/>
+      <c r="CO13" s="13"/>
+      <c r="CP13" s="24"/>
+      <c r="CR13" s="13"/>
+      <c r="CS13" s="13"/>
+      <c r="CT13" s="24"/>
+      <c r="CV13" s="13"/>
+      <c r="CW13" s="13"/>
+      <c r="CX13" s="24"/>
+      <c r="CZ13" s="13"/>
+      <c r="DA13" s="13"/>
+      <c r="DB13" s="24"/>
+      <c r="DD13" s="13"/>
+      <c r="DE13" s="13"/>
+      <c r="DF13" s="24"/>
+      <c r="DH13" s="13"/>
+      <c r="DI13" s="13"/>
+      <c r="DJ13" s="24"/>
+      <c r="DL13" s="13"/>
+      <c r="DM13" s="13"/>
+      <c r="DN13" s="24"/>
+      <c r="DP13" s="13"/>
+      <c r="DQ13" s="13"/>
+      <c r="DR13" s="24"/>
     </row>
-    <row r="14" s="5" customFormat="1" spans="4:122">
-      <c r="D14" s="21" t="s">
+    <row r="14" s="5" customFormat="1" ht="17" spans="4:122">
+      <c r="D14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="21">
-        <f>Sheet3!B20</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="H14" s="21" t="s">
+      <c r="E14" s="15">
+        <v>11</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="H14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="15">
         <f>Sheet3!F20</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="L14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="L14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="15">
         <f>Sheet3!J20</f>
         <v>0</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="P14" s="15" t="s">
+      <c r="N14" s="24"/>
+      <c r="P14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="20"/>
-      <c r="T14" s="15" t="s">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="24"/>
+      <c r="T14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="15"/>
-      <c r="V14" s="20"/>
-      <c r="X14" s="15" t="s">
+      <c r="U14" s="13"/>
+      <c r="V14" s="24"/>
+      <c r="X14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="20"/>
-      <c r="AB14" s="15" t="s">
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="24"/>
+      <c r="AB14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="20"/>
-      <c r="AF14" s="15" t="s">
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="24"/>
+      <c r="AF14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="20"/>
-      <c r="AJ14" s="15" t="s">
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="24"/>
+      <c r="AJ14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="20"/>
-      <c r="AN14" s="15" t="s">
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="24"/>
+      <c r="AN14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="20"/>
-      <c r="AR14" s="15" t="s">
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="24"/>
+      <c r="AR14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="20"/>
-      <c r="AV14" s="15" t="s">
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="24"/>
+      <c r="AV14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="20"/>
-      <c r="AZ14" s="15" t="s">
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="24"/>
+      <c r="AZ14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="20"/>
-      <c r="BD14" s="15" t="s">
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="24"/>
+      <c r="BD14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="20"/>
-      <c r="BH14" s="15" t="s">
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="24"/>
+      <c r="BH14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="20"/>
-      <c r="BL14" s="15" t="s">
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="24"/>
+      <c r="BL14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BM14" s="15"/>
-      <c r="BN14" s="20"/>
-      <c r="BP14" s="15" t="s">
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="24"/>
+      <c r="BP14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BQ14" s="15"/>
-      <c r="BR14" s="20"/>
-      <c r="BT14" s="15" t="s">
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="24"/>
+      <c r="BT14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BU14" s="15"/>
-      <c r="BV14" s="20"/>
-      <c r="BX14" s="15" t="s">
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="24"/>
+      <c r="BX14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BY14" s="15"/>
-      <c r="BZ14" s="20"/>
-      <c r="CB14" s="15" t="s">
+      <c r="BY14" s="13"/>
+      <c r="BZ14" s="24"/>
+      <c r="CB14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CC14" s="15"/>
-      <c r="CD14" s="20"/>
-      <c r="CF14" s="15" t="s">
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="24"/>
+      <c r="CF14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CG14" s="15"/>
-      <c r="CH14" s="20"/>
-      <c r="CJ14" s="15" t="s">
+      <c r="CG14" s="13"/>
+      <c r="CH14" s="24"/>
+      <c r="CJ14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CK14" s="15"/>
-      <c r="CL14" s="20"/>
-      <c r="CN14" s="15" t="s">
+      <c r="CK14" s="13"/>
+      <c r="CL14" s="24"/>
+      <c r="CN14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CO14" s="15"/>
-      <c r="CP14" s="20"/>
-      <c r="CR14" s="15" t="s">
+      <c r="CO14" s="13"/>
+      <c r="CP14" s="24"/>
+      <c r="CR14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CS14" s="15"/>
-      <c r="CT14" s="20"/>
-      <c r="CV14" s="15" t="s">
+      <c r="CS14" s="13"/>
+      <c r="CT14" s="24"/>
+      <c r="CV14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="CW14" s="15"/>
-      <c r="CX14" s="20"/>
-      <c r="CZ14" s="15" t="s">
+      <c r="CW14" s="13"/>
+      <c r="CX14" s="24"/>
+      <c r="CZ14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="DA14" s="15"/>
-      <c r="DB14" s="20"/>
-      <c r="DD14" s="15" t="s">
+      <c r="DA14" s="13"/>
+      <c r="DB14" s="24"/>
+      <c r="DD14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="DE14" s="15"/>
-      <c r="DF14" s="20"/>
-      <c r="DH14" s="15" t="s">
+      <c r="DE14" s="13"/>
+      <c r="DF14" s="24"/>
+      <c r="DH14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="DI14" s="15"/>
-      <c r="DJ14" s="20"/>
-      <c r="DL14" s="15" t="s">
+      <c r="DI14" s="13"/>
+      <c r="DJ14" s="24"/>
+      <c r="DL14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="DM14" s="15"/>
-      <c r="DN14" s="20"/>
-      <c r="DP14" s="15" t="s">
+      <c r="DM14" s="13"/>
+      <c r="DN14" s="24"/>
+      <c r="DP14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="DQ14" s="15"/>
-      <c r="DR14" s="20"/>
+      <c r="DQ14" s="13"/>
+      <c r="DR14" s="24"/>
     </row>
     <row r="15" spans="4:122">
-      <c r="D15" s="23">
-        <v>45464</v>
-      </c>
-      <c r="E15" s="24">
-        <v>53.76</v>
-      </c>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="16">
+        <v>45587</v>
+      </c>
+      <c r="E15" s="26">
+        <v>3059.16</v>
+      </c>
+      <c r="F15" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="16">
         <v>45494</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="26">
         <v>153.76</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="23">
+      <c r="J15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="16">
         <v>45494</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="26">
         <v>153.76</v>
       </c>
-      <c r="N15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="25"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="25"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="25"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="25"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="25"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="24"/>
-      <c r="AX15" s="25"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="25"/>
-      <c r="BD15" s="23"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="25"/>
-      <c r="BH15" s="23"/>
-      <c r="BI15" s="24"/>
-      <c r="BJ15" s="25"/>
-      <c r="BL15" s="23"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="25"/>
-      <c r="BP15" s="23"/>
-      <c r="BQ15" s="24"/>
-      <c r="BR15" s="25"/>
-      <c r="BT15" s="23"/>
-      <c r="BU15" s="24"/>
-      <c r="BV15" s="25"/>
-      <c r="BX15" s="23"/>
-      <c r="BY15" s="24"/>
-      <c r="BZ15" s="25"/>
-      <c r="CB15" s="23"/>
-      <c r="CC15" s="24"/>
-      <c r="CD15" s="25"/>
-      <c r="CF15" s="23"/>
-      <c r="CG15" s="24"/>
-      <c r="CH15" s="25"/>
-      <c r="CJ15" s="23"/>
-      <c r="CK15" s="24"/>
-      <c r="CL15" s="25"/>
-      <c r="CN15" s="23"/>
-      <c r="CO15" s="24"/>
-      <c r="CP15" s="25"/>
-      <c r="CR15" s="23"/>
-      <c r="CS15" s="24"/>
-      <c r="CT15" s="25"/>
-      <c r="CV15" s="23"/>
-      <c r="CW15" s="24"/>
-      <c r="CX15" s="25"/>
-      <c r="CZ15" s="23"/>
-      <c r="DA15" s="24"/>
-      <c r="DB15" s="25"/>
-      <c r="DD15" s="23"/>
-      <c r="DE15" s="24"/>
-      <c r="DF15" s="25"/>
-      <c r="DH15" s="23"/>
-      <c r="DI15" s="24"/>
-      <c r="DJ15" s="25"/>
-      <c r="DL15" s="23"/>
-      <c r="DM15" s="24"/>
-      <c r="DN15" s="25"/>
-      <c r="DP15" s="23"/>
-      <c r="DQ15" s="24"/>
-      <c r="DR15" s="25"/>
+      <c r="N15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="27"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="27"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="27"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="27"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="27"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="27"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="27"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="27"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="27"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="26"/>
+      <c r="BN15" s="27"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="26"/>
+      <c r="BR15" s="27"/>
+      <c r="BT15" s="16"/>
+      <c r="BU15" s="26"/>
+      <c r="BV15" s="27"/>
+      <c r="BX15" s="16"/>
+      <c r="BY15" s="26"/>
+      <c r="BZ15" s="27"/>
+      <c r="CB15" s="16"/>
+      <c r="CC15" s="26"/>
+      <c r="CD15" s="27"/>
+      <c r="CF15" s="16"/>
+      <c r="CG15" s="26"/>
+      <c r="CH15" s="27"/>
+      <c r="CJ15" s="16"/>
+      <c r="CK15" s="26"/>
+      <c r="CL15" s="27"/>
+      <c r="CN15" s="16"/>
+      <c r="CO15" s="26"/>
+      <c r="CP15" s="27"/>
+      <c r="CR15" s="16"/>
+      <c r="CS15" s="26"/>
+      <c r="CT15" s="27"/>
+      <c r="CV15" s="16"/>
+      <c r="CW15" s="26"/>
+      <c r="CX15" s="27"/>
+      <c r="CZ15" s="16"/>
+      <c r="DA15" s="26"/>
+      <c r="DB15" s="27"/>
+      <c r="DD15" s="16"/>
+      <c r="DE15" s="26"/>
+      <c r="DF15" s="27"/>
+      <c r="DH15" s="16"/>
+      <c r="DI15" s="26"/>
+      <c r="DJ15" s="27"/>
+      <c r="DL15" s="16"/>
+      <c r="DM15" s="26"/>
+      <c r="DN15" s="27"/>
+      <c r="DP15" s="16"/>
+      <c r="DQ15" s="26"/>
+      <c r="DR15" s="27"/>
     </row>
     <row r="16" spans="4:122">
-      <c r="D16" s="13">
+      <c r="D16" s="16">
+        <v>45587</v>
+      </c>
+      <c r="E16" s="26">
+        <v>153.28</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="11">
         <v>45558</v>
       </c>
-      <c r="E16" s="24">
-        <v>75</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="I16" s="26">
+        <v>175</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="11">
         <v>45558</v>
       </c>
-      <c r="I16" s="24">
+      <c r="M16" s="26">
         <v>175</v>
       </c>
-      <c r="J16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="13">
-        <v>45558</v>
-      </c>
-      <c r="M16" s="24">
-        <v>175</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="14"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="14"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="14"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="14"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="14"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="14"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="14"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="24"/>
-      <c r="AX16" s="14"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="14"/>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="14"/>
-      <c r="BH16" s="13"/>
-      <c r="BI16" s="24"/>
-      <c r="BJ16" s="14"/>
-      <c r="BL16" s="13"/>
-      <c r="BM16" s="24"/>
-      <c r="BN16" s="14"/>
-      <c r="BP16" s="13"/>
-      <c r="BQ16" s="24"/>
-      <c r="BR16" s="14"/>
-      <c r="BT16" s="13"/>
-      <c r="BU16" s="24"/>
-      <c r="BV16" s="14"/>
-      <c r="BX16" s="13"/>
-      <c r="BY16" s="24"/>
-      <c r="BZ16" s="14"/>
-      <c r="CB16" s="13"/>
-      <c r="CC16" s="24"/>
-      <c r="CD16" s="14"/>
-      <c r="CF16" s="13"/>
-      <c r="CG16" s="24"/>
-      <c r="CH16" s="14"/>
-      <c r="CJ16" s="13"/>
-      <c r="CK16" s="24"/>
-      <c r="CL16" s="14"/>
-      <c r="CN16" s="13"/>
-      <c r="CO16" s="24"/>
-      <c r="CP16" s="14"/>
-      <c r="CR16" s="13"/>
-      <c r="CS16" s="24"/>
-      <c r="CT16" s="14"/>
-      <c r="CV16" s="13"/>
-      <c r="CW16" s="24"/>
-      <c r="CX16" s="14"/>
-      <c r="CZ16" s="13"/>
-      <c r="DA16" s="24"/>
-      <c r="DB16" s="14"/>
-      <c r="DD16" s="13"/>
-      <c r="DE16" s="24"/>
-      <c r="DF16" s="14"/>
-      <c r="DH16" s="13"/>
-      <c r="DI16" s="24"/>
-      <c r="DJ16" s="14"/>
-      <c r="DL16" s="13"/>
-      <c r="DM16" s="24"/>
-      <c r="DN16" s="14"/>
-      <c r="DP16" s="13"/>
-      <c r="DQ16" s="24"/>
-      <c r="DR16" s="14"/>
+      <c r="N16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="12"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="12"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="12"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="12"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="12"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="12"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="12"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="12"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="12"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="26"/>
+      <c r="BF16" s="12"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="12"/>
+      <c r="BL16" s="11"/>
+      <c r="BM16" s="26"/>
+      <c r="BN16" s="12"/>
+      <c r="BP16" s="11"/>
+      <c r="BQ16" s="26"/>
+      <c r="BR16" s="12"/>
+      <c r="BT16" s="11"/>
+      <c r="BU16" s="26"/>
+      <c r="BV16" s="12"/>
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="26"/>
+      <c r="BZ16" s="12"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="26"/>
+      <c r="CD16" s="12"/>
+      <c r="CF16" s="11"/>
+      <c r="CG16" s="26"/>
+      <c r="CH16" s="12"/>
+      <c r="CJ16" s="11"/>
+      <c r="CK16" s="26"/>
+      <c r="CL16" s="12"/>
+      <c r="CN16" s="11"/>
+      <c r="CO16" s="26"/>
+      <c r="CP16" s="12"/>
+      <c r="CR16" s="11"/>
+      <c r="CS16" s="26"/>
+      <c r="CT16" s="12"/>
+      <c r="CV16" s="11"/>
+      <c r="CW16" s="26"/>
+      <c r="CX16" s="12"/>
+      <c r="CZ16" s="11"/>
+      <c r="DA16" s="26"/>
+      <c r="DB16" s="12"/>
+      <c r="DD16" s="11"/>
+      <c r="DE16" s="26"/>
+      <c r="DF16" s="12"/>
+      <c r="DH16" s="11"/>
+      <c r="DI16" s="26"/>
+      <c r="DJ16" s="12"/>
+      <c r="DL16" s="11"/>
+      <c r="DM16" s="26"/>
+      <c r="DN16" s="12"/>
+      <c r="DP16" s="11"/>
+      <c r="DQ16" s="26"/>
+      <c r="DR16" s="12"/>
     </row>
     <row r="17" s="5" customFormat="1" spans="4:122">
-      <c r="D17" s="13">
+      <c r="D17" s="16">
+        <v>45587</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1.56</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="11">
         <v>45558</v>
       </c>
-      <c r="E17" s="24">
+      <c r="I17" s="26">
         <v>122.06</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="J17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="11">
         <v>45558</v>
       </c>
-      <c r="I17" s="24">
+      <c r="M17" s="26">
         <v>122.06</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="13">
-        <v>45558</v>
-      </c>
-      <c r="M17" s="24">
-        <v>122.06</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="14"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="14"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="14"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="14"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="14"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="14"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="14"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="14"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="14"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="14"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="24"/>
-      <c r="BJ17" s="14"/>
-      <c r="BL17" s="26"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="14"/>
-      <c r="BP17" s="26"/>
-      <c r="BQ17" s="24"/>
-      <c r="BR17" s="14"/>
-      <c r="BT17" s="26"/>
-      <c r="BU17" s="24"/>
-      <c r="BV17" s="14"/>
-      <c r="BX17" s="26"/>
-      <c r="BY17" s="24"/>
-      <c r="BZ17" s="14"/>
-      <c r="CB17" s="26"/>
-      <c r="CC17" s="24"/>
-      <c r="CD17" s="14"/>
-      <c r="CF17" s="26"/>
-      <c r="CG17" s="24"/>
-      <c r="CH17" s="14"/>
-      <c r="CJ17" s="26"/>
-      <c r="CK17" s="24"/>
-      <c r="CL17" s="14"/>
-      <c r="CN17" s="26"/>
-      <c r="CO17" s="24"/>
-      <c r="CP17" s="14"/>
-      <c r="CR17" s="26"/>
-      <c r="CS17" s="24"/>
-      <c r="CT17" s="14"/>
-      <c r="CV17" s="26"/>
-      <c r="CW17" s="24"/>
-      <c r="CX17" s="14"/>
-      <c r="CZ17" s="26"/>
-      <c r="DA17" s="24"/>
-      <c r="DB17" s="14"/>
-      <c r="DD17" s="26"/>
-      <c r="DE17" s="24"/>
-      <c r="DF17" s="14"/>
-      <c r="DH17" s="26"/>
-      <c r="DI17" s="24"/>
-      <c r="DJ17" s="14"/>
-      <c r="DL17" s="26"/>
-      <c r="DM17" s="24"/>
-      <c r="DN17" s="14"/>
-      <c r="DP17" s="26"/>
-      <c r="DQ17" s="24"/>
-      <c r="DR17" s="14"/>
+      <c r="N17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="12"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="27"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="12"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="12"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="12"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="12"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="12"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="12"/>
+      <c r="AV17" s="17"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="12"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="12"/>
+      <c r="BD17" s="17"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="12"/>
+      <c r="BH17" s="17"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="12"/>
+      <c r="BL17" s="17"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="12"/>
+      <c r="BP17" s="17"/>
+      <c r="BQ17" s="26"/>
+      <c r="BR17" s="12"/>
+      <c r="BT17" s="17"/>
+      <c r="BU17" s="26"/>
+      <c r="BV17" s="12"/>
+      <c r="BX17" s="17"/>
+      <c r="BY17" s="26"/>
+      <c r="BZ17" s="12"/>
+      <c r="CB17" s="17"/>
+      <c r="CC17" s="26"/>
+      <c r="CD17" s="12"/>
+      <c r="CF17" s="17"/>
+      <c r="CG17" s="26"/>
+      <c r="CH17" s="12"/>
+      <c r="CJ17" s="17"/>
+      <c r="CK17" s="26"/>
+      <c r="CL17" s="12"/>
+      <c r="CN17" s="17"/>
+      <c r="CO17" s="26"/>
+      <c r="CP17" s="12"/>
+      <c r="CR17" s="17"/>
+      <c r="CS17" s="26"/>
+      <c r="CT17" s="12"/>
+      <c r="CV17" s="17"/>
+      <c r="CW17" s="26"/>
+      <c r="CX17" s="12"/>
+      <c r="CZ17" s="17"/>
+      <c r="DA17" s="26"/>
+      <c r="DB17" s="12"/>
+      <c r="DD17" s="17"/>
+      <c r="DE17" s="26"/>
+      <c r="DF17" s="12"/>
+      <c r="DH17" s="17"/>
+      <c r="DI17" s="26"/>
+      <c r="DJ17" s="12"/>
+      <c r="DL17" s="17"/>
+      <c r="DM17" s="26"/>
+      <c r="DN17" s="12"/>
+      <c r="DP17" s="17"/>
+      <c r="DQ17" s="26"/>
+      <c r="DR17" s="12"/>
     </row>
     <row r="18" s="5" customFormat="1" spans="4:122">
-      <c r="D18" s="13">
+      <c r="D18" s="16">
+        <v>45617</v>
+      </c>
+      <c r="E18" s="26">
+        <v>3824</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="11">
         <v>45558</v>
       </c>
-      <c r="E18" s="24">
+      <c r="I18" s="26">
         <v>2.94</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="J18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="13">
+      <c r="L18" s="11">
         <v>45558</v>
       </c>
-      <c r="I18" s="24">
+      <c r="M18" s="26">
         <v>2.94</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="N18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="13">
-        <v>45558</v>
-      </c>
-      <c r="M18" s="24">
-        <v>2.94</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="14"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="14"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="14"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="14"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="14"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="14"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="14"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="14"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="14"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="14"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="14"/>
-      <c r="BL18" s="26"/>
-      <c r="BM18" s="24"/>
-      <c r="BN18" s="14"/>
-      <c r="BP18" s="26"/>
-      <c r="BQ18" s="24"/>
-      <c r="BR18" s="14"/>
-      <c r="BT18" s="26"/>
-      <c r="BU18" s="24"/>
-      <c r="BV18" s="14"/>
-      <c r="BX18" s="26"/>
-      <c r="BY18" s="24"/>
-      <c r="BZ18" s="14"/>
-      <c r="CB18" s="26"/>
-      <c r="CC18" s="24"/>
-      <c r="CD18" s="14"/>
-      <c r="CF18" s="26"/>
-      <c r="CG18" s="24"/>
-      <c r="CH18" s="14"/>
-      <c r="CJ18" s="26"/>
-      <c r="CK18" s="24"/>
-      <c r="CL18" s="14"/>
-      <c r="CN18" s="26"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="14"/>
-      <c r="CR18" s="26"/>
-      <c r="CS18" s="24"/>
-      <c r="CT18" s="14"/>
-      <c r="CV18" s="26"/>
-      <c r="CW18" s="24"/>
-      <c r="CX18" s="14"/>
-      <c r="CZ18" s="26"/>
-      <c r="DA18" s="24"/>
-      <c r="DB18" s="14"/>
-      <c r="DD18" s="26"/>
-      <c r="DE18" s="24"/>
-      <c r="DF18" s="14"/>
-      <c r="DH18" s="26"/>
-      <c r="DI18" s="24"/>
-      <c r="DJ18" s="14"/>
-      <c r="DL18" s="26"/>
-      <c r="DM18" s="24"/>
-      <c r="DN18" s="14"/>
-      <c r="DP18" s="26"/>
-      <c r="DQ18" s="24"/>
-      <c r="DR18" s="14"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="12"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="12"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="12"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="12"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="12"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="12"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="12"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="12"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="12"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="12"/>
+      <c r="BH18" s="17"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="12"/>
+      <c r="BL18" s="17"/>
+      <c r="BM18" s="26"/>
+      <c r="BN18" s="12"/>
+      <c r="BP18" s="17"/>
+      <c r="BQ18" s="26"/>
+      <c r="BR18" s="12"/>
+      <c r="BT18" s="17"/>
+      <c r="BU18" s="26"/>
+      <c r="BV18" s="12"/>
+      <c r="BX18" s="17"/>
+      <c r="BY18" s="26"/>
+      <c r="BZ18" s="12"/>
+      <c r="CB18" s="17"/>
+      <c r="CC18" s="26"/>
+      <c r="CD18" s="12"/>
+      <c r="CF18" s="17"/>
+      <c r="CG18" s="26"/>
+      <c r="CH18" s="12"/>
+      <c r="CJ18" s="17"/>
+      <c r="CK18" s="26"/>
+      <c r="CL18" s="12"/>
+      <c r="CN18" s="17"/>
+      <c r="CO18" s="26"/>
+      <c r="CP18" s="12"/>
+      <c r="CR18" s="17"/>
+      <c r="CS18" s="26"/>
+      <c r="CT18" s="12"/>
+      <c r="CV18" s="17"/>
+      <c r="CW18" s="26"/>
+      <c r="CX18" s="12"/>
+      <c r="CZ18" s="17"/>
+      <c r="DA18" s="26"/>
+      <c r="DB18" s="12"/>
+      <c r="DD18" s="17"/>
+      <c r="DE18" s="26"/>
+      <c r="DF18" s="12"/>
+      <c r="DH18" s="17"/>
+      <c r="DI18" s="26"/>
+      <c r="DJ18" s="12"/>
+      <c r="DL18" s="17"/>
+      <c r="DM18" s="26"/>
+      <c r="DN18" s="12"/>
+      <c r="DP18" s="17"/>
+      <c r="DQ18" s="26"/>
+      <c r="DR18" s="12"/>
     </row>
     <row r="19" s="5" customFormat="1" spans="4:122">
-      <c r="D19" s="13">
+      <c r="D19" s="11"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="H19" s="11">
         <v>45799</v>
       </c>
-      <c r="E19" s="24">
-        <v>75</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="I19" s="26">
+        <v>175</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="11">
         <v>45799</v>
       </c>
-      <c r="I19" s="24">
+      <c r="M19" s="26">
         <v>175</v>
       </c>
-      <c r="J19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="13">
-        <v>45799</v>
-      </c>
-      <c r="M19" s="24">
-        <v>175</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="14"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="14"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="14"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="14"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="14"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="14"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="14"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="14"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="14"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="14"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="24"/>
-      <c r="BJ19" s="14"/>
-      <c r="BL19" s="26"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="14"/>
-      <c r="BP19" s="26"/>
-      <c r="BQ19" s="24"/>
-      <c r="BR19" s="14"/>
-      <c r="BT19" s="26"/>
-      <c r="BU19" s="24"/>
-      <c r="BV19" s="14"/>
-      <c r="BX19" s="26"/>
-      <c r="BY19" s="24"/>
-      <c r="BZ19" s="14"/>
-      <c r="CB19" s="26"/>
-      <c r="CC19" s="24"/>
-      <c r="CD19" s="14"/>
-      <c r="CF19" s="26"/>
-      <c r="CG19" s="24"/>
-      <c r="CH19" s="14"/>
-      <c r="CJ19" s="26"/>
-      <c r="CK19" s="24"/>
-      <c r="CL19" s="14"/>
-      <c r="CN19" s="26"/>
-      <c r="CO19" s="24"/>
-      <c r="CP19" s="14"/>
-      <c r="CR19" s="26"/>
-      <c r="CS19" s="24"/>
-      <c r="CT19" s="14"/>
-      <c r="CV19" s="26"/>
-      <c r="CW19" s="24"/>
-      <c r="CX19" s="14"/>
-      <c r="CZ19" s="26"/>
-      <c r="DA19" s="24"/>
-      <c r="DB19" s="14"/>
-      <c r="DD19" s="26"/>
-      <c r="DE19" s="24"/>
-      <c r="DF19" s="14"/>
-      <c r="DH19" s="26"/>
-      <c r="DI19" s="24"/>
-      <c r="DJ19" s="14"/>
-      <c r="DL19" s="26"/>
-      <c r="DM19" s="24"/>
-      <c r="DN19" s="14"/>
-      <c r="DP19" s="26"/>
-      <c r="DQ19" s="24"/>
-      <c r="DR19" s="14"/>
+      <c r="N19" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="12"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="12"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="12"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="12"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="12"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="12"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="12"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="12"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="12"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="12"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="12"/>
+      <c r="BL19" s="17"/>
+      <c r="BM19" s="26"/>
+      <c r="BN19" s="12"/>
+      <c r="BP19" s="17"/>
+      <c r="BQ19" s="26"/>
+      <c r="BR19" s="12"/>
+      <c r="BT19" s="17"/>
+      <c r="BU19" s="26"/>
+      <c r="BV19" s="12"/>
+      <c r="BX19" s="17"/>
+      <c r="BY19" s="26"/>
+      <c r="BZ19" s="12"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="26"/>
+      <c r="CD19" s="12"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="26"/>
+      <c r="CH19" s="12"/>
+      <c r="CJ19" s="17"/>
+      <c r="CK19" s="26"/>
+      <c r="CL19" s="12"/>
+      <c r="CN19" s="17"/>
+      <c r="CO19" s="26"/>
+      <c r="CP19" s="12"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="26"/>
+      <c r="CT19" s="12"/>
+      <c r="CV19" s="17"/>
+      <c r="CW19" s="26"/>
+      <c r="CX19" s="12"/>
+      <c r="CZ19" s="17"/>
+      <c r="DA19" s="26"/>
+      <c r="DB19" s="12"/>
+      <c r="DD19" s="17"/>
+      <c r="DE19" s="26"/>
+      <c r="DF19" s="12"/>
+      <c r="DH19" s="17"/>
+      <c r="DI19" s="26"/>
+      <c r="DJ19" s="12"/>
+      <c r="DL19" s="17"/>
+      <c r="DM19" s="26"/>
+      <c r="DN19" s="12"/>
+      <c r="DP19" s="17"/>
+      <c r="DQ19" s="26"/>
+      <c r="DR19" s="12"/>
     </row>
     <row r="20" s="5" customFormat="1" spans="4:122">
-      <c r="D20" s="13">
+      <c r="D20" s="11"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="H20" s="11">
         <v>45802</v>
       </c>
-      <c r="E20" s="24">
-        <v>75</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="I20" s="26">
+        <v>175</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="11">
         <v>45802</v>
       </c>
-      <c r="I20" s="24">
+      <c r="M20" s="26">
         <v>175</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="13">
-        <v>45802</v>
-      </c>
-      <c r="M20" s="24">
-        <v>175</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="14"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="14"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="14"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="14"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="14"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="14"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="14"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="24"/>
-      <c r="AX20" s="14"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="14"/>
-      <c r="BD20" s="13"/>
-      <c r="BE20" s="24"/>
-      <c r="BF20" s="14"/>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="24"/>
-      <c r="BJ20" s="14"/>
-      <c r="BL20" s="13"/>
-      <c r="BM20" s="24"/>
-      <c r="BN20" s="14"/>
-      <c r="BP20" s="13"/>
-      <c r="BQ20" s="24"/>
-      <c r="BR20" s="14"/>
-      <c r="BT20" s="13"/>
-      <c r="BU20" s="24"/>
-      <c r="BV20" s="14"/>
-      <c r="BX20" s="13"/>
-      <c r="BY20" s="24"/>
-      <c r="BZ20" s="14"/>
-      <c r="CB20" s="13"/>
-      <c r="CC20" s="24"/>
-      <c r="CD20" s="14"/>
-      <c r="CF20" s="13"/>
-      <c r="CG20" s="24"/>
-      <c r="CH20" s="14"/>
-      <c r="CJ20" s="13"/>
-      <c r="CK20" s="24"/>
-      <c r="CL20" s="14"/>
-      <c r="CN20" s="13"/>
-      <c r="CO20" s="24"/>
-      <c r="CP20" s="14"/>
-      <c r="CR20" s="13"/>
-      <c r="CS20" s="24"/>
-      <c r="CT20" s="14"/>
-      <c r="CV20" s="13"/>
-      <c r="CW20" s="24"/>
-      <c r="CX20" s="14"/>
-      <c r="CZ20" s="13"/>
-      <c r="DA20" s="24"/>
-      <c r="DB20" s="14"/>
-      <c r="DD20" s="13"/>
-      <c r="DE20" s="24"/>
-      <c r="DF20" s="14"/>
-      <c r="DH20" s="13"/>
-      <c r="DI20" s="24"/>
-      <c r="DJ20" s="14"/>
-      <c r="DL20" s="13"/>
-      <c r="DM20" s="24"/>
-      <c r="DN20" s="14"/>
-      <c r="DP20" s="13"/>
-      <c r="DQ20" s="24"/>
-      <c r="DR20" s="14"/>
+      <c r="N20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="12"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="12"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="12"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="12"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="12"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="12"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="12"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="12"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="12"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="12"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="12"/>
+      <c r="BL20" s="11"/>
+      <c r="BM20" s="26"/>
+      <c r="BN20" s="12"/>
+      <c r="BP20" s="11"/>
+      <c r="BQ20" s="26"/>
+      <c r="BR20" s="12"/>
+      <c r="BT20" s="11"/>
+      <c r="BU20" s="26"/>
+      <c r="BV20" s="12"/>
+      <c r="BX20" s="11"/>
+      <c r="BY20" s="26"/>
+      <c r="BZ20" s="12"/>
+      <c r="CB20" s="11"/>
+      <c r="CC20" s="26"/>
+      <c r="CD20" s="12"/>
+      <c r="CF20" s="11"/>
+      <c r="CG20" s="26"/>
+      <c r="CH20" s="12"/>
+      <c r="CJ20" s="11"/>
+      <c r="CK20" s="26"/>
+      <c r="CL20" s="12"/>
+      <c r="CN20" s="11"/>
+      <c r="CO20" s="26"/>
+      <c r="CP20" s="12"/>
+      <c r="CR20" s="11"/>
+      <c r="CS20" s="26"/>
+      <c r="CT20" s="12"/>
+      <c r="CV20" s="11"/>
+      <c r="CW20" s="26"/>
+      <c r="CX20" s="12"/>
+      <c r="CZ20" s="11"/>
+      <c r="DA20" s="26"/>
+      <c r="DB20" s="12"/>
+      <c r="DD20" s="11"/>
+      <c r="DE20" s="26"/>
+      <c r="DF20" s="12"/>
+      <c r="DH20" s="11"/>
+      <c r="DI20" s="26"/>
+      <c r="DJ20" s="12"/>
+      <c r="DL20" s="11"/>
+      <c r="DM20" s="26"/>
+      <c r="DN20" s="12"/>
+      <c r="DP20" s="11"/>
+      <c r="DQ20" s="26"/>
+      <c r="DR20" s="12"/>
     </row>
     <row r="21" s="5" customFormat="1" spans="4:122">
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="14"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="14"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="14"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="14"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="14"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="14"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="14"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="14"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="14"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="14"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="24"/>
-      <c r="AX21" s="14"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="14"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="14"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="14"/>
-      <c r="BL21" s="26"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="14"/>
-      <c r="BP21" s="26"/>
-      <c r="BQ21" s="24"/>
-      <c r="BR21" s="14"/>
-      <c r="BT21" s="26"/>
-      <c r="BU21" s="24"/>
-      <c r="BV21" s="14"/>
-      <c r="BX21" s="26"/>
-      <c r="BY21" s="24"/>
-      <c r="BZ21" s="14"/>
-      <c r="CB21" s="26"/>
-      <c r="CC21" s="24"/>
-      <c r="CD21" s="14"/>
-      <c r="CF21" s="26"/>
-      <c r="CG21" s="24"/>
-      <c r="CH21" s="14"/>
-      <c r="CJ21" s="26"/>
-      <c r="CK21" s="24"/>
-      <c r="CL21" s="14"/>
-      <c r="CN21" s="26"/>
-      <c r="CO21" s="24"/>
-      <c r="CP21" s="14"/>
-      <c r="CR21" s="26"/>
-      <c r="CS21" s="24"/>
-      <c r="CT21" s="14"/>
-      <c r="CV21" s="26"/>
-      <c r="CW21" s="24"/>
-      <c r="CX21" s="14"/>
-      <c r="CZ21" s="26"/>
-      <c r="DA21" s="24"/>
-      <c r="DB21" s="14"/>
-      <c r="DD21" s="26"/>
-      <c r="DE21" s="24"/>
-      <c r="DF21" s="14"/>
-      <c r="DH21" s="26"/>
-      <c r="DI21" s="24"/>
-      <c r="DJ21" s="14"/>
-      <c r="DL21" s="26"/>
-      <c r="DM21" s="24"/>
-      <c r="DN21" s="14"/>
-      <c r="DP21" s="26"/>
-      <c r="DQ21" s="24"/>
-      <c r="DR21" s="14"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="12"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="12"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="12"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="12"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="12"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="12"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="12"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="12"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="12"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="12"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="12"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="12"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="12"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="12"/>
+      <c r="BL21" s="17"/>
+      <c r="BM21" s="26"/>
+      <c r="BN21" s="12"/>
+      <c r="BP21" s="17"/>
+      <c r="BQ21" s="26"/>
+      <c r="BR21" s="12"/>
+      <c r="BT21" s="17"/>
+      <c r="BU21" s="26"/>
+      <c r="BV21" s="12"/>
+      <c r="BX21" s="17"/>
+      <c r="BY21" s="26"/>
+      <c r="BZ21" s="12"/>
+      <c r="CB21" s="17"/>
+      <c r="CC21" s="26"/>
+      <c r="CD21" s="12"/>
+      <c r="CF21" s="17"/>
+      <c r="CG21" s="26"/>
+      <c r="CH21" s="12"/>
+      <c r="CJ21" s="17"/>
+      <c r="CK21" s="26"/>
+      <c r="CL21" s="12"/>
+      <c r="CN21" s="17"/>
+      <c r="CO21" s="26"/>
+      <c r="CP21" s="12"/>
+      <c r="CR21" s="17"/>
+      <c r="CS21" s="26"/>
+      <c r="CT21" s="12"/>
+      <c r="CV21" s="17"/>
+      <c r="CW21" s="26"/>
+      <c r="CX21" s="12"/>
+      <c r="CZ21" s="17"/>
+      <c r="DA21" s="26"/>
+      <c r="DB21" s="12"/>
+      <c r="DD21" s="17"/>
+      <c r="DE21" s="26"/>
+      <c r="DF21" s="12"/>
+      <c r="DH21" s="17"/>
+      <c r="DI21" s="26"/>
+      <c r="DJ21" s="12"/>
+      <c r="DL21" s="17"/>
+      <c r="DM21" s="26"/>
+      <c r="DN21" s="12"/>
+      <c r="DP21" s="17"/>
+      <c r="DQ21" s="26"/>
+      <c r="DR21" s="12"/>
     </row>
     <row r="22" s="5" customFormat="1" spans="4:122">
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="14"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="14"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="14"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="14"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="14"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="14"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="14"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="14"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="14"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="14"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="24"/>
-      <c r="AX22" s="14"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="14"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="24"/>
-      <c r="BF22" s="14"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="24"/>
-      <c r="BJ22" s="14"/>
-      <c r="BL22" s="26"/>
-      <c r="BM22" s="24"/>
-      <c r="BN22" s="14"/>
-      <c r="BP22" s="26"/>
-      <c r="BQ22" s="24"/>
-      <c r="BR22" s="14"/>
-      <c r="BT22" s="26"/>
-      <c r="BU22" s="24"/>
-      <c r="BV22" s="14"/>
-      <c r="BX22" s="26"/>
-      <c r="BY22" s="24"/>
-      <c r="BZ22" s="14"/>
-      <c r="CB22" s="26"/>
-      <c r="CC22" s="24"/>
-      <c r="CD22" s="14"/>
-      <c r="CF22" s="26"/>
-      <c r="CG22" s="24"/>
-      <c r="CH22" s="14"/>
-      <c r="CJ22" s="26"/>
-      <c r="CK22" s="24"/>
-      <c r="CL22" s="14"/>
-      <c r="CN22" s="26"/>
-      <c r="CO22" s="24"/>
-      <c r="CP22" s="14"/>
-      <c r="CR22" s="26"/>
-      <c r="CS22" s="24"/>
-      <c r="CT22" s="14"/>
-      <c r="CV22" s="26"/>
-      <c r="CW22" s="24"/>
-      <c r="CX22" s="14"/>
-      <c r="CZ22" s="26"/>
-      <c r="DA22" s="24"/>
-      <c r="DB22" s="14"/>
-      <c r="DD22" s="26"/>
-      <c r="DE22" s="24"/>
-      <c r="DF22" s="14"/>
-      <c r="DH22" s="26"/>
-      <c r="DI22" s="24"/>
-      <c r="DJ22" s="14"/>
-      <c r="DL22" s="26"/>
-      <c r="DM22" s="24"/>
-      <c r="DN22" s="14"/>
-      <c r="DP22" s="26"/>
-      <c r="DQ22" s="24"/>
-      <c r="DR22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="12"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="12"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="12"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="12"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="12"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="12"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="12"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="12"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="12"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="12"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="12"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="12"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="12"/>
+      <c r="BL22" s="17"/>
+      <c r="BM22" s="26"/>
+      <c r="BN22" s="12"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="26"/>
+      <c r="BR22" s="12"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="26"/>
+      <c r="BV22" s="12"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="26"/>
+      <c r="BZ22" s="12"/>
+      <c r="CB22" s="17"/>
+      <c r="CC22" s="26"/>
+      <c r="CD22" s="12"/>
+      <c r="CF22" s="17"/>
+      <c r="CG22" s="26"/>
+      <c r="CH22" s="12"/>
+      <c r="CJ22" s="17"/>
+      <c r="CK22" s="26"/>
+      <c r="CL22" s="12"/>
+      <c r="CN22" s="17"/>
+      <c r="CO22" s="26"/>
+      <c r="CP22" s="12"/>
+      <c r="CR22" s="17"/>
+      <c r="CS22" s="26"/>
+      <c r="CT22" s="12"/>
+      <c r="CV22" s="17"/>
+      <c r="CW22" s="26"/>
+      <c r="CX22" s="12"/>
+      <c r="CZ22" s="17"/>
+      <c r="DA22" s="26"/>
+      <c r="DB22" s="12"/>
+      <c r="DD22" s="17"/>
+      <c r="DE22" s="26"/>
+      <c r="DF22" s="12"/>
+      <c r="DH22" s="17"/>
+      <c r="DI22" s="26"/>
+      <c r="DJ22" s="12"/>
+      <c r="DL22" s="17"/>
+      <c r="DM22" s="26"/>
+      <c r="DN22" s="12"/>
+      <c r="DP22" s="17"/>
+      <c r="DQ22" s="26"/>
+      <c r="DR22" s="12"/>
     </row>
     <row r="23" s="5" customFormat="1" spans="4:122">
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="14"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="14"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="14"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="14"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="25"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="14"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="14"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="14"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="14"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="14"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="14"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="24"/>
-      <c r="AX23" s="14"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="14"/>
-      <c r="BD23" s="26"/>
-      <c r="BE23" s="24"/>
-      <c r="BF23" s="14"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="24"/>
-      <c r="BJ23" s="14"/>
-      <c r="BL23" s="26"/>
-      <c r="BM23" s="24"/>
-      <c r="BN23" s="14"/>
-      <c r="BP23" s="26"/>
-      <c r="BQ23" s="24"/>
-      <c r="BR23" s="14"/>
-      <c r="BT23" s="26"/>
-      <c r="BU23" s="24"/>
-      <c r="BV23" s="14"/>
-      <c r="BX23" s="26"/>
-      <c r="BY23" s="24"/>
-      <c r="BZ23" s="14"/>
-      <c r="CB23" s="26"/>
-      <c r="CC23" s="24"/>
-      <c r="CD23" s="14"/>
-      <c r="CF23" s="26"/>
-      <c r="CG23" s="24"/>
-      <c r="CH23" s="14"/>
-      <c r="CJ23" s="26"/>
-      <c r="CK23" s="24"/>
-      <c r="CL23" s="14"/>
-      <c r="CN23" s="26"/>
-      <c r="CO23" s="24"/>
-      <c r="CP23" s="14"/>
-      <c r="CR23" s="26"/>
-      <c r="CS23" s="24"/>
-      <c r="CT23" s="14"/>
-      <c r="CV23" s="26"/>
-      <c r="CW23" s="24"/>
-      <c r="CX23" s="14"/>
-      <c r="CZ23" s="26"/>
-      <c r="DA23" s="24"/>
-      <c r="DB23" s="14"/>
-      <c r="DD23" s="26"/>
-      <c r="DE23" s="24"/>
-      <c r="DF23" s="14"/>
-      <c r="DH23" s="26"/>
-      <c r="DI23" s="24"/>
-      <c r="DJ23" s="14"/>
-      <c r="DL23" s="26"/>
-      <c r="DM23" s="24"/>
-      <c r="DN23" s="14"/>
-      <c r="DP23" s="26"/>
-      <c r="DQ23" s="24"/>
-      <c r="DR23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="12"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="12"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="12"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="12"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="27"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="12"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="12"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="12"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="12"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="12"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="12"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="12"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="12"/>
+      <c r="BD23" s="17"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="12"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="12"/>
+      <c r="BL23" s="17"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="12"/>
+      <c r="BP23" s="17"/>
+      <c r="BQ23" s="26"/>
+      <c r="BR23" s="12"/>
+      <c r="BT23" s="17"/>
+      <c r="BU23" s="26"/>
+      <c r="BV23" s="12"/>
+      <c r="BX23" s="17"/>
+      <c r="BY23" s="26"/>
+      <c r="BZ23" s="12"/>
+      <c r="CB23" s="17"/>
+      <c r="CC23" s="26"/>
+      <c r="CD23" s="12"/>
+      <c r="CF23" s="17"/>
+      <c r="CG23" s="26"/>
+      <c r="CH23" s="12"/>
+      <c r="CJ23" s="17"/>
+      <c r="CK23" s="26"/>
+      <c r="CL23" s="12"/>
+      <c r="CN23" s="17"/>
+      <c r="CO23" s="26"/>
+      <c r="CP23" s="12"/>
+      <c r="CR23" s="17"/>
+      <c r="CS23" s="26"/>
+      <c r="CT23" s="12"/>
+      <c r="CV23" s="17"/>
+      <c r="CW23" s="26"/>
+      <c r="CX23" s="12"/>
+      <c r="CZ23" s="17"/>
+      <c r="DA23" s="26"/>
+      <c r="DB23" s="12"/>
+      <c r="DD23" s="17"/>
+      <c r="DE23" s="26"/>
+      <c r="DF23" s="12"/>
+      <c r="DH23" s="17"/>
+      <c r="DI23" s="26"/>
+      <c r="DJ23" s="12"/>
+      <c r="DL23" s="17"/>
+      <c r="DM23" s="26"/>
+      <c r="DN23" s="12"/>
+      <c r="DP23" s="17"/>
+      <c r="DQ23" s="26"/>
+      <c r="DR23" s="12"/>
     </row>
     <row r="24" spans="4:122">
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="14"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="14"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="14"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="14"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="14"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="14"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="14"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="14"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="14"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="14"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="24"/>
-      <c r="AT24" s="14"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="24"/>
-      <c r="AX24" s="14"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="24"/>
-      <c r="BB24" s="14"/>
-      <c r="BD24" s="26"/>
-      <c r="BE24" s="24"/>
-      <c r="BF24" s="14"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="24"/>
-      <c r="BJ24" s="14"/>
-      <c r="BL24" s="26"/>
-      <c r="BM24" s="24"/>
-      <c r="BN24" s="14"/>
-      <c r="BP24" s="26"/>
-      <c r="BQ24" s="24"/>
-      <c r="BR24" s="14"/>
-      <c r="BT24" s="26"/>
-      <c r="BU24" s="24"/>
-      <c r="BV24" s="14"/>
-      <c r="BX24" s="26"/>
-      <c r="BY24" s="24"/>
-      <c r="BZ24" s="14"/>
-      <c r="CB24" s="26"/>
-      <c r="CC24" s="24"/>
-      <c r="CD24" s="14"/>
-      <c r="CF24" s="26"/>
-      <c r="CG24" s="24"/>
-      <c r="CH24" s="14"/>
-      <c r="CJ24" s="26"/>
-      <c r="CK24" s="24"/>
-      <c r="CL24" s="14"/>
-      <c r="CN24" s="26"/>
-      <c r="CO24" s="24"/>
-      <c r="CP24" s="14"/>
-      <c r="CR24" s="26"/>
-      <c r="CS24" s="24"/>
-      <c r="CT24" s="14"/>
-      <c r="CV24" s="26"/>
-      <c r="CW24" s="24"/>
-      <c r="CX24" s="14"/>
-      <c r="CZ24" s="26"/>
-      <c r="DA24" s="24"/>
-      <c r="DB24" s="14"/>
-      <c r="DD24" s="26"/>
-      <c r="DE24" s="24"/>
-      <c r="DF24" s="14"/>
-      <c r="DH24" s="26"/>
-      <c r="DI24" s="24"/>
-      <c r="DJ24" s="14"/>
-      <c r="DL24" s="26"/>
-      <c r="DM24" s="24"/>
-      <c r="DN24" s="14"/>
-      <c r="DP24" s="26"/>
-      <c r="DQ24" s="24"/>
-      <c r="DR24" s="14"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="12"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="12"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="12"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="12"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="12"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="12"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="12"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="12"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="12"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="12"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="12"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="12"/>
+      <c r="BD24" s="17"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="12"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="12"/>
+      <c r="BL24" s="17"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="12"/>
+      <c r="BP24" s="17"/>
+      <c r="BQ24" s="26"/>
+      <c r="BR24" s="12"/>
+      <c r="BT24" s="17"/>
+      <c r="BU24" s="26"/>
+      <c r="BV24" s="12"/>
+      <c r="BX24" s="17"/>
+      <c r="BY24" s="26"/>
+      <c r="BZ24" s="12"/>
+      <c r="CB24" s="17"/>
+      <c r="CC24" s="26"/>
+      <c r="CD24" s="12"/>
+      <c r="CF24" s="17"/>
+      <c r="CG24" s="26"/>
+      <c r="CH24" s="12"/>
+      <c r="CJ24" s="17"/>
+      <c r="CK24" s="26"/>
+      <c r="CL24" s="12"/>
+      <c r="CN24" s="17"/>
+      <c r="CO24" s="26"/>
+      <c r="CP24" s="12"/>
+      <c r="CR24" s="17"/>
+      <c r="CS24" s="26"/>
+      <c r="CT24" s="12"/>
+      <c r="CV24" s="17"/>
+      <c r="CW24" s="26"/>
+      <c r="CX24" s="12"/>
+      <c r="CZ24" s="17"/>
+      <c r="DA24" s="26"/>
+      <c r="DB24" s="12"/>
+      <c r="DD24" s="17"/>
+      <c r="DE24" s="26"/>
+      <c r="DF24" s="12"/>
+      <c r="DH24" s="17"/>
+      <c r="DI24" s="26"/>
+      <c r="DJ24" s="12"/>
+      <c r="DL24" s="17"/>
+      <c r="DM24" s="26"/>
+      <c r="DN24" s="12"/>
+      <c r="DP24" s="17"/>
+      <c r="DQ24" s="26"/>
+      <c r="DR24" s="12"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="4:122">
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="14"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="14"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="14"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="14"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="14"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="14"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="14"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="14"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="14"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="14"/>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="14"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="24"/>
-      <c r="AX25" s="14"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="24"/>
-      <c r="BB25" s="14"/>
-      <c r="BD25" s="26"/>
-      <c r="BE25" s="24"/>
-      <c r="BF25" s="14"/>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="24"/>
-      <c r="BJ25" s="14"/>
-      <c r="BL25" s="26"/>
-      <c r="BM25" s="24"/>
-      <c r="BN25" s="14"/>
-      <c r="BP25" s="26"/>
-      <c r="BQ25" s="24"/>
-      <c r="BR25" s="14"/>
-      <c r="BT25" s="26"/>
-      <c r="BU25" s="24"/>
-      <c r="BV25" s="14"/>
-      <c r="BX25" s="26"/>
-      <c r="BY25" s="24"/>
-      <c r="BZ25" s="14"/>
-      <c r="CB25" s="26"/>
-      <c r="CC25" s="24"/>
-      <c r="CD25" s="14"/>
-      <c r="CF25" s="26"/>
-      <c r="CG25" s="24"/>
-      <c r="CH25" s="14"/>
-      <c r="CJ25" s="26"/>
-      <c r="CK25" s="24"/>
-      <c r="CL25" s="14"/>
-      <c r="CN25" s="26"/>
-      <c r="CO25" s="24"/>
-      <c r="CP25" s="14"/>
-      <c r="CR25" s="26"/>
-      <c r="CS25" s="24"/>
-      <c r="CT25" s="14"/>
-      <c r="CV25" s="26"/>
-      <c r="CW25" s="24"/>
-      <c r="CX25" s="14"/>
-      <c r="CZ25" s="26"/>
-      <c r="DA25" s="24"/>
-      <c r="DB25" s="14"/>
-      <c r="DD25" s="26"/>
-      <c r="DE25" s="24"/>
-      <c r="DF25" s="14"/>
-      <c r="DH25" s="26"/>
-      <c r="DI25" s="24"/>
-      <c r="DJ25" s="14"/>
-      <c r="DL25" s="26"/>
-      <c r="DM25" s="24"/>
-      <c r="DN25" s="14"/>
-      <c r="DP25" s="26"/>
-      <c r="DQ25" s="24"/>
-      <c r="DR25" s="14"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="12"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="12"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="12"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="12"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="12"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="12"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="12"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="12"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="12"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="12"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="12"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="12"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="12"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="12"/>
+      <c r="BL25" s="17"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="12"/>
+      <c r="BP25" s="17"/>
+      <c r="BQ25" s="26"/>
+      <c r="BR25" s="12"/>
+      <c r="BT25" s="17"/>
+      <c r="BU25" s="26"/>
+      <c r="BV25" s="12"/>
+      <c r="BX25" s="17"/>
+      <c r="BY25" s="26"/>
+      <c r="BZ25" s="12"/>
+      <c r="CB25" s="17"/>
+      <c r="CC25" s="26"/>
+      <c r="CD25" s="12"/>
+      <c r="CF25" s="17"/>
+      <c r="CG25" s="26"/>
+      <c r="CH25" s="12"/>
+      <c r="CJ25" s="17"/>
+      <c r="CK25" s="26"/>
+      <c r="CL25" s="12"/>
+      <c r="CN25" s="17"/>
+      <c r="CO25" s="26"/>
+      <c r="CP25" s="12"/>
+      <c r="CR25" s="17"/>
+      <c r="CS25" s="26"/>
+      <c r="CT25" s="12"/>
+      <c r="CV25" s="17"/>
+      <c r="CW25" s="26"/>
+      <c r="CX25" s="12"/>
+      <c r="CZ25" s="17"/>
+      <c r="DA25" s="26"/>
+      <c r="DB25" s="12"/>
+      <c r="DD25" s="17"/>
+      <c r="DE25" s="26"/>
+      <c r="DF25" s="12"/>
+      <c r="DH25" s="17"/>
+      <c r="DI25" s="26"/>
+      <c r="DJ25" s="12"/>
+      <c r="DL25" s="17"/>
+      <c r="DM25" s="26"/>
+      <c r="DN25" s="12"/>
+      <c r="DP25" s="17"/>
+      <c r="DQ25" s="26"/>
+      <c r="DR25" s="12"/>
     </row>
     <row r="26" s="5" customFormat="1" spans="4:122">
-      <c r="D26" s="26"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="14"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="14"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="14"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="14"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="14"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="14"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="14"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="14"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="14"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="24"/>
-      <c r="AP26" s="14"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="14"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="24"/>
-      <c r="AX26" s="14"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="24"/>
-      <c r="BB26" s="14"/>
-      <c r="BD26" s="26"/>
-      <c r="BE26" s="24"/>
-      <c r="BF26" s="14"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="24"/>
-      <c r="BJ26" s="14"/>
-      <c r="BL26" s="26"/>
-      <c r="BM26" s="24"/>
-      <c r="BN26" s="14"/>
-      <c r="BP26" s="26"/>
-      <c r="BQ26" s="24"/>
-      <c r="BR26" s="14"/>
-      <c r="BT26" s="26"/>
-      <c r="BU26" s="24"/>
-      <c r="BV26" s="14"/>
-      <c r="BX26" s="26"/>
-      <c r="BY26" s="24"/>
-      <c r="BZ26" s="14"/>
-      <c r="CB26" s="26"/>
-      <c r="CC26" s="24"/>
-      <c r="CD26" s="14"/>
-      <c r="CF26" s="26"/>
-      <c r="CG26" s="24"/>
-      <c r="CH26" s="14"/>
-      <c r="CJ26" s="26"/>
-      <c r="CK26" s="24"/>
-      <c r="CL26" s="14"/>
-      <c r="CN26" s="26"/>
-      <c r="CO26" s="24"/>
-      <c r="CP26" s="14"/>
-      <c r="CR26" s="26"/>
-      <c r="CS26" s="24"/>
-      <c r="CT26" s="14"/>
-      <c r="CV26" s="26"/>
-      <c r="CW26" s="24"/>
-      <c r="CX26" s="14"/>
-      <c r="CZ26" s="26"/>
-      <c r="DA26" s="24"/>
-      <c r="DB26" s="14"/>
-      <c r="DD26" s="26"/>
-      <c r="DE26" s="24"/>
-      <c r="DF26" s="14"/>
-      <c r="DH26" s="26"/>
-      <c r="DI26" s="24"/>
-      <c r="DJ26" s="14"/>
-      <c r="DL26" s="26"/>
-      <c r="DM26" s="24"/>
-      <c r="DN26" s="14"/>
-      <c r="DP26" s="26"/>
-      <c r="DQ26" s="24"/>
-      <c r="DR26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="12"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="12"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="12"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="12"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="12"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="12"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="12"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="12"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="12"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="12"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="12"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="12"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="12"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="12"/>
+      <c r="BL26" s="17"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="12"/>
+      <c r="BP26" s="17"/>
+      <c r="BQ26" s="26"/>
+      <c r="BR26" s="12"/>
+      <c r="BT26" s="17"/>
+      <c r="BU26" s="26"/>
+      <c r="BV26" s="12"/>
+      <c r="BX26" s="17"/>
+      <c r="BY26" s="26"/>
+      <c r="BZ26" s="12"/>
+      <c r="CB26" s="17"/>
+      <c r="CC26" s="26"/>
+      <c r="CD26" s="12"/>
+      <c r="CF26" s="17"/>
+      <c r="CG26" s="26"/>
+      <c r="CH26" s="12"/>
+      <c r="CJ26" s="17"/>
+      <c r="CK26" s="26"/>
+      <c r="CL26" s="12"/>
+      <c r="CN26" s="17"/>
+      <c r="CO26" s="26"/>
+      <c r="CP26" s="12"/>
+      <c r="CR26" s="17"/>
+      <c r="CS26" s="26"/>
+      <c r="CT26" s="12"/>
+      <c r="CV26" s="17"/>
+      <c r="CW26" s="26"/>
+      <c r="CX26" s="12"/>
+      <c r="CZ26" s="17"/>
+      <c r="DA26" s="26"/>
+      <c r="DB26" s="12"/>
+      <c r="DD26" s="17"/>
+      <c r="DE26" s="26"/>
+      <c r="DF26" s="12"/>
+      <c r="DH26" s="17"/>
+      <c r="DI26" s="26"/>
+      <c r="DJ26" s="12"/>
+      <c r="DL26" s="17"/>
+      <c r="DM26" s="26"/>
+      <c r="DN26" s="12"/>
+      <c r="DP26" s="17"/>
+      <c r="DQ26" s="26"/>
+      <c r="DR26" s="12"/>
     </row>
     <row r="27" s="5" customFormat="1" spans="4:122">
-      <c r="D27" s="26"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="14"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="14"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="14"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="14"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="14"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="14"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="14"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="14"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="14"/>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="24"/>
-      <c r="AP27" s="14"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="24"/>
-      <c r="AT27" s="14"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="24"/>
-      <c r="AX27" s="14"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="24"/>
-      <c r="BB27" s="14"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="24"/>
-      <c r="BF27" s="14"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="24"/>
-      <c r="BJ27" s="14"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="24"/>
-      <c r="BN27" s="14"/>
-      <c r="BP27" s="26"/>
-      <c r="BQ27" s="24"/>
-      <c r="BR27" s="14"/>
-      <c r="BT27" s="26"/>
-      <c r="BU27" s="24"/>
-      <c r="BV27" s="14"/>
-      <c r="BX27" s="26"/>
-      <c r="BY27" s="24"/>
-      <c r="BZ27" s="14"/>
-      <c r="CB27" s="26"/>
-      <c r="CC27" s="24"/>
-      <c r="CD27" s="14"/>
-      <c r="CF27" s="26"/>
-      <c r="CG27" s="24"/>
-      <c r="CH27" s="14"/>
-      <c r="CJ27" s="26"/>
-      <c r="CK27" s="24"/>
-      <c r="CL27" s="14"/>
-      <c r="CN27" s="26"/>
-      <c r="CO27" s="24"/>
-      <c r="CP27" s="14"/>
-      <c r="CR27" s="26"/>
-      <c r="CS27" s="24"/>
-      <c r="CT27" s="14"/>
-      <c r="CV27" s="26"/>
-      <c r="CW27" s="24"/>
-      <c r="CX27" s="14"/>
-      <c r="CZ27" s="26"/>
-      <c r="DA27" s="24"/>
-      <c r="DB27" s="14"/>
-      <c r="DD27" s="26"/>
-      <c r="DE27" s="24"/>
-      <c r="DF27" s="14"/>
-      <c r="DH27" s="26"/>
-      <c r="DI27" s="24"/>
-      <c r="DJ27" s="14"/>
-      <c r="DL27" s="26"/>
-      <c r="DM27" s="24"/>
-      <c r="DN27" s="14"/>
-      <c r="DP27" s="26"/>
-      <c r="DQ27" s="24"/>
-      <c r="DR27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="12"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="12"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="12"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="12"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="12"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="12"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="12"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="12"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="12"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="12"/>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="12"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="12"/>
+      <c r="BD27" s="17"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="12"/>
+      <c r="BH27" s="17"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="12"/>
+      <c r="BL27" s="17"/>
+      <c r="BM27" s="26"/>
+      <c r="BN27" s="12"/>
+      <c r="BP27" s="17"/>
+      <c r="BQ27" s="26"/>
+      <c r="BR27" s="12"/>
+      <c r="BT27" s="17"/>
+      <c r="BU27" s="26"/>
+      <c r="BV27" s="12"/>
+      <c r="BX27" s="17"/>
+      <c r="BY27" s="26"/>
+      <c r="BZ27" s="12"/>
+      <c r="CB27" s="17"/>
+      <c r="CC27" s="26"/>
+      <c r="CD27" s="12"/>
+      <c r="CF27" s="17"/>
+      <c r="CG27" s="26"/>
+      <c r="CH27" s="12"/>
+      <c r="CJ27" s="17"/>
+      <c r="CK27" s="26"/>
+      <c r="CL27" s="12"/>
+      <c r="CN27" s="17"/>
+      <c r="CO27" s="26"/>
+      <c r="CP27" s="12"/>
+      <c r="CR27" s="17"/>
+      <c r="CS27" s="26"/>
+      <c r="CT27" s="12"/>
+      <c r="CV27" s="17"/>
+      <c r="CW27" s="26"/>
+      <c r="CX27" s="12"/>
+      <c r="CZ27" s="17"/>
+      <c r="DA27" s="26"/>
+      <c r="DB27" s="12"/>
+      <c r="DD27" s="17"/>
+      <c r="DE27" s="26"/>
+      <c r="DF27" s="12"/>
+      <c r="DH27" s="17"/>
+      <c r="DI27" s="26"/>
+      <c r="DJ27" s="12"/>
+      <c r="DL27" s="17"/>
+      <c r="DM27" s="26"/>
+      <c r="DN27" s="12"/>
+      <c r="DP27" s="17"/>
+      <c r="DQ27" s="26"/>
+      <c r="DR27" s="12"/>
     </row>
     <row r="28" s="5" customFormat="1" spans="4:122">
-      <c r="D28" s="26"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="14"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="14"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="14"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="14"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="14"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="14"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="14"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="14"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="14"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="14"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="14"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="14"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="14"/>
-      <c r="BD28" s="26"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="14"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="24"/>
-      <c r="BJ28" s="14"/>
-      <c r="BL28" s="26"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="14"/>
-      <c r="BP28" s="26"/>
-      <c r="BQ28" s="24"/>
-      <c r="BR28" s="14"/>
-      <c r="BT28" s="26"/>
-      <c r="BU28" s="24"/>
-      <c r="BV28" s="14"/>
-      <c r="BX28" s="26"/>
-      <c r="BY28" s="24"/>
-      <c r="BZ28" s="14"/>
-      <c r="CB28" s="26"/>
-      <c r="CC28" s="24"/>
-      <c r="CD28" s="14"/>
-      <c r="CF28" s="26"/>
-      <c r="CG28" s="24"/>
-      <c r="CH28" s="14"/>
-      <c r="CJ28" s="26"/>
-      <c r="CK28" s="24"/>
-      <c r="CL28" s="14"/>
-      <c r="CN28" s="26"/>
-      <c r="CO28" s="24"/>
-      <c r="CP28" s="14"/>
-      <c r="CR28" s="26"/>
-      <c r="CS28" s="24"/>
-      <c r="CT28" s="14"/>
-      <c r="CV28" s="26"/>
-      <c r="CW28" s="24"/>
-      <c r="CX28" s="14"/>
-      <c r="CZ28" s="26"/>
-      <c r="DA28" s="24"/>
-      <c r="DB28" s="14"/>
-      <c r="DD28" s="26"/>
-      <c r="DE28" s="24"/>
-      <c r="DF28" s="14"/>
-      <c r="DH28" s="26"/>
-      <c r="DI28" s="24"/>
-      <c r="DJ28" s="14"/>
-      <c r="DL28" s="26"/>
-      <c r="DM28" s="24"/>
-      <c r="DN28" s="14"/>
-      <c r="DP28" s="26"/>
-      <c r="DQ28" s="24"/>
-      <c r="DR28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="12"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="12"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="12"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="12"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="12"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="12"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="12"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="12"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="12"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="12"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="12"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="12"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="12"/>
+      <c r="BL28" s="17"/>
+      <c r="BM28" s="26"/>
+      <c r="BN28" s="12"/>
+      <c r="BP28" s="17"/>
+      <c r="BQ28" s="26"/>
+      <c r="BR28" s="12"/>
+      <c r="BT28" s="17"/>
+      <c r="BU28" s="26"/>
+      <c r="BV28" s="12"/>
+      <c r="BX28" s="17"/>
+      <c r="BY28" s="26"/>
+      <c r="BZ28" s="12"/>
+      <c r="CB28" s="17"/>
+      <c r="CC28" s="26"/>
+      <c r="CD28" s="12"/>
+      <c r="CF28" s="17"/>
+      <c r="CG28" s="26"/>
+      <c r="CH28" s="12"/>
+      <c r="CJ28" s="17"/>
+      <c r="CK28" s="26"/>
+      <c r="CL28" s="12"/>
+      <c r="CN28" s="17"/>
+      <c r="CO28" s="26"/>
+      <c r="CP28" s="12"/>
+      <c r="CR28" s="17"/>
+      <c r="CS28" s="26"/>
+      <c r="CT28" s="12"/>
+      <c r="CV28" s="17"/>
+      <c r="CW28" s="26"/>
+      <c r="CX28" s="12"/>
+      <c r="CZ28" s="17"/>
+      <c r="DA28" s="26"/>
+      <c r="DB28" s="12"/>
+      <c r="DD28" s="17"/>
+      <c r="DE28" s="26"/>
+      <c r="DF28" s="12"/>
+      <c r="DH28" s="17"/>
+      <c r="DI28" s="26"/>
+      <c r="DJ28" s="12"/>
+      <c r="DL28" s="17"/>
+      <c r="DM28" s="26"/>
+      <c r="DN28" s="12"/>
+      <c r="DP28" s="17"/>
+      <c r="DQ28" s="26"/>
+      <c r="DR28" s="12"/>
     </row>
     <row r="34" spans="4:14">
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="4:14">
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" spans="4:14">
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
     </row>
     <row r="37" spans="4:14">
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
     </row>
     <row r="38" spans="4:14">
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
     </row>
     <row r="39" spans="4:14">
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
     </row>
     <row r="40" spans="4:14">
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
     </row>
     <row r="41" spans="4:14">
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
     </row>
     <row r="42" spans="4:14">
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
     </row>
     <row r="43" spans="4:14">
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
     </row>
     <row r="44" spans="4:14">
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
     </row>
     <row r="45" spans="4:14">
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
     </row>
     <row r="46" spans="4:14">
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
     </row>
     <row r="47" spans="4:14">
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
     </row>
     <row r="48" spans="4:14">
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
     </row>
     <row r="49" spans="4:14">
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
     </row>
     <row r="50" spans="4:14">
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
     </row>
     <row r="51" spans="4:14">
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
     </row>
     <row r="52" spans="4:14">
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
     </row>
     <row r="53" spans="4:14">
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
     </row>
     <row r="54" spans="4:14">
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
     </row>
     <row r="55" spans="4:14">
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
     </row>
     <row r="56" spans="4:14">
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="4:14">
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="58" spans="4:14">
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
     </row>
     <row r="59" spans="4:14">
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
     </row>
     <row r="60" spans="4:14">
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
     </row>
     <row r="61" spans="4:14">
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
     </row>
     <row r="62" spans="4:14">
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
     </row>
     <row r="63" spans="4:14">
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
     </row>
     <row r="64" spans="4:14">
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
     </row>
     <row r="65" spans="4:14">
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
     </row>
     <row r="66" spans="4:14">
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
     </row>
     <row r="67" spans="4:14">
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
     </row>
     <row r="68" spans="4:14">
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
     </row>
     <row r="69" spans="4:14">
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
     </row>
     <row r="70" spans="4:14">
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
     </row>
     <row r="71" spans="4:14">
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
     </row>
     <row r="72" spans="4:14">
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -5522,11 +5489,11 @@
     <mergeCell ref="D34:N72"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 I11 M11 Q11 U11 Y10:Y11 AC10:AC11 AG10:AG11 AK10:AK11 AO10:AO11 AS10:AS11 AW10:AW11 BA10:BA11 BE10:BE11 BI10:BI11 BM10:BM11 BQ10:BQ11 BU10:BU11 BY10:BY11 CC10:CC11 CG10:CG11 CK10:CK11 CO10:CO11 CS10:CS11 CW10:CW11 DA10:DA11 DE10:DE11 DI10:DI11 DM10:DM11 DQ10:DQ11">
+      <formula1>"先息后本,等额本金,等额本息"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 I10 M10 Q10 U10">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 I11 M11 Q11 U11 Y10:Y11 AC10:AC11 AG10:AG11 AK10:AK11 AO10:AO11 AS10:AS11 AW10:AW11 BA10:BA11 BE10:BE11 BI10:BI11 BM10:BM11 BQ10:BQ11 BU10:BU11 BY10:BY11 CC10:CC11 CG10:CG11 CK10:CK11 CO10:CO11 CS10:CS11 CW10:CW11 DA10:DA11 DE10:DE11 DI10:DI11 DM10:DM11 DQ10:DQ11">
-      <formula1>"先息后本,等额本金,等额本息"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5544,12 +5511,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02884615384615" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="27.6818181818182" customWidth="1"/>
-    <col min="2" max="2" width="11.7272727272727"/>
-    <col min="5" max="5" width="22.2181818181818" customWidth="1"/>
-    <col min="6" max="6" width="10.5909090909091" customWidth="1"/>
+    <col min="1" max="1" width="27.6826923076923" customWidth="1"/>
+    <col min="2" max="2" width="11.7307692307692"/>
+    <col min="5" max="5" width="22.2211538461538" customWidth="1"/>
+    <col min="6" max="6" width="10.5865384615385" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5694,14 +5661,14 @@
       </c>
       <c r="B4">
         <f>YEAR(Sheet1!E13)</f>
-        <v>1900</v>
+        <v>2024</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4">
         <f>YEAR(Sheet1!I13)</f>
-        <v>1900</v>
+        <v>2024</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
@@ -5906,14 +5873,14 @@
       </c>
       <c r="B5">
         <f>MONTH(Sheet1!E13)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
       </c>
       <c r="F5">
         <f>MONTH(Sheet1!I13)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>69</v>
@@ -6118,14 +6085,14 @@
       </c>
       <c r="B6">
         <f>DAY(Sheet1!E13)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
       </c>
       <c r="F6">
         <f>DAY(Sheet1!I13)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>70</v>
@@ -6330,14 +6297,14 @@
       </c>
       <c r="B7">
         <f>IF(B6&gt;=Sheet1!E12,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
       </c>
       <c r="F7">
         <f>IF(F6&gt;=Sheet1!I12,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>71</v>
@@ -6542,14 +6509,14 @@
       </c>
       <c r="B8">
         <f>IF(B9&lt;=B5,B4,B4-1)</f>
-        <v>1899</v>
+        <v>2024</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
       </c>
       <c r="F8">
         <f>IF(F9&lt;=F5,F4,F4-1)</f>
-        <v>1899</v>
+        <v>2024</v>
       </c>
       <c r="I8" t="s">
         <v>72</v>
@@ -6754,14 +6721,14 @@
       </c>
       <c r="B9">
         <f>IF(B7=0,B5,IF(B5=1,12,B5-1))</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
       </c>
       <c r="F9">
         <f>IF(F7=0,F5,IF(F5=1,12,F5-1))</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
         <v>73</v>
@@ -7178,14 +7145,14 @@
       </c>
       <c r="B11" s="3">
         <f>DATE(B8,B9,B10)</f>
-        <v>693952</v>
+        <v>45556</v>
       </c>
       <c r="E11" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="3">
         <f>DATE(F8,F9,F10)</f>
-        <v>693952</v>
+        <v>45556</v>
       </c>
       <c r="I11" t="s">
         <v>75</v>
@@ -7390,14 +7357,14 @@
       </c>
       <c r="B12">
         <f>YEAR(Sheet1!E8)</f>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E12" t="s">
         <v>76</v>
       </c>
       <c r="F12">
         <f>YEAR(Sheet1!I8)</f>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
@@ -7602,14 +7569,14 @@
       </c>
       <c r="B13">
         <f>MONTH(Sheet1!E8)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
       </c>
       <c r="F13">
         <f>MONTH(Sheet1!I8)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
@@ -7814,14 +7781,14 @@
       </c>
       <c r="B14">
         <f>DAY(Sheet1!E8)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>78</v>
       </c>
       <c r="F14">
         <f>DAY(Sheet1!I8)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
         <v>78</v>
@@ -8026,14 +7993,14 @@
       </c>
       <c r="B15">
         <f>IF(B16&gt;=B13,B12,B12+1)</f>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E15" t="s">
         <v>79</v>
       </c>
       <c r="F15">
         <f>IF(F16&gt;=F13,F12,F12+1)</f>
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I15" t="s">
         <v>79</v>
@@ -8238,14 +8205,14 @@
       </c>
       <c r="B16">
         <f>IF(B14&lt;=Sheet1!E12,IF(B13=12,1,B13+1),IF(B13=11,1,IF(B13=12,2,B13+2)))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
       </c>
       <c r="F16">
         <f>IF(F14&lt;=Sheet1!I12,IF(F13=12,1,F13+1),IF(F13=11,1,IF(F13=12,2,F13+2)))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
         <v>80</v>
@@ -8662,14 +8629,14 @@
       </c>
       <c r="B18" s="4">
         <f>DATE(B15,B16,B17)</f>
-        <v>45464</v>
+        <v>45281</v>
       </c>
       <c r="E18" t="s">
         <v>82</v>
       </c>
       <c r="F18" s="4">
         <f>DATE(F15,F16,F17)</f>
-        <v>45464</v>
+        <v>45281</v>
       </c>
       <c r="I18" t="s">
         <v>82</v>
@@ -8874,14 +8841,14 @@
       </c>
       <c r="B19" s="4">
         <f>EDATE(B18,-1)</f>
-        <v>45433</v>
+        <v>45251</v>
       </c>
       <c r="E19" t="s">
         <v>83</v>
       </c>
       <c r="F19" s="4">
         <f>EDATE(F18,-1)</f>
-        <v>45433</v>
+        <v>45251</v>
       </c>
       <c r="I19" t="s">
         <v>83</v>
@@ -9086,14 +9053,14 @@
       </c>
       <c r="B20">
         <f>IF(Sheet1!E10="是",IF(Sheet1!E13=0,0,(DATEDIF(B18,B11,"M")+1)),IF(Sheet1!E13=0,0,(DATEDIF(B19,B11,"M")+1)))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
         <v>84</v>
       </c>
       <c r="F20">
         <f>IF(Sheet1!I10="是",IF(Sheet1!I13=0,0,(DATEDIF(F18,F11,"M")+1)),IF(Sheet1!I13=0,0,(DATEDIF(F19,F11,"M")+1)))</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
         <v>84</v>
